--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF2D4F2-3166-4B49-A786-228C8527841D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46644AB-E47D-4241-AD2F-98FB592C74AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4886" yWindow="3086" windowWidth="24685" windowHeight="13603" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>ENG</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Plant-based pet&lt;br&gt; food for optimal&lt;br&gt; health</t>
   </si>
   <si>
-    <t>Taimne&lt;br&gt; lemmikloomatoit&lt;br&gt; optimaalseks terviseks</t>
-  </si>
-  <si>
     <t>shop now</t>
   </si>
   <si>
@@ -230,19 +227,36 @@
   </si>
   <si>
     <t>богат питательными веществами</t>
+  </si>
+  <si>
+    <t>add to cart</t>
+  </si>
+  <si>
+    <t>В корзину</t>
+  </si>
+  <si>
+    <t>lisa ostukorvi</t>
+  </si>
+  <si>
+    <t>Taimne&lt;br&gt; lemmikloomatoit&lt;br&gt; optimaalseks&lt;br&gt; terviseks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,9 +279,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,18 +599,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A19D9-4586-4F47-8D23-E44EBCDB03EC}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="3" width="80.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,224 +621,235 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>35</v>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46644AB-E47D-4241-AD2F-98FB592C74AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16569A84-4049-4832-9D3B-CCDAD1136CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4886" yWindow="3086" windowWidth="24685" windowHeight="13603" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="translation" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">translation!$A$1:$C$21</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">translation!$A$1:$C$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>ENG</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Formula developed by specialized veterinarians based on European Pet food Industry federation guidelines.</t>
   </si>
   <si>
-    <t>Valem, mille on välja töötanud spetsialiseerunud veterinaararstid, tuginedes Euroopa lemmikloomatoidutööstuse föderatsiooni juhistele</t>
-  </si>
-  <si>
     <t>Cart</t>
   </si>
   <si>
@@ -109,12 +106,6 @@
     <t>Transport</t>
   </si>
   <si>
-    <t>parcel locker</t>
-  </si>
-  <si>
-    <t>pakiautomaat</t>
-  </si>
-  <si>
     <t>My data</t>
   </si>
   <si>
@@ -181,9 +172,6 @@
     <t>Транспорт</t>
   </si>
   <si>
-    <t>почтомат</t>
-  </si>
-  <si>
     <t>Мои данные</t>
   </si>
   <si>
@@ -239,6 +227,27 @@
   </si>
   <si>
     <t>Taimne&lt;br&gt; lemmikloomatoit&lt;br&gt; optimaalseks&lt;br&gt; terviseks</t>
+  </si>
+  <si>
+    <t>Loomaarstide poolt välja töötatud valem, mis põhineb Euroopa lemmikloomatoidutööstuse föderatsiooni juhistel.</t>
+  </si>
+  <si>
+    <t>DPD parcel locker (3 EUR)</t>
+  </si>
+  <si>
+    <t>DPD почтомат (3 EUR)</t>
+  </si>
+  <si>
+    <t>DPD pakiautomaat (3 EUR)</t>
+  </si>
+  <si>
+    <t>Omniva parcel locker (3.50 EUR)</t>
+  </si>
+  <si>
+    <t>Omniva почтомат (3.50 EUR)</t>
+  </si>
+  <si>
+    <t>Omniva pakiautomaat (3.50 EUR)</t>
   </si>
 </sst>
 </file>
@@ -599,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A19D9-4586-4F47-8D23-E44EBCDB03EC}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -626,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -637,10 +646,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -648,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -659,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -670,7 +679,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -681,7 +690,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -689,35 +698,35 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -725,131 +734,142 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
+      <c r="A14" t="s">
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
+      <c r="A15" t="s">
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16569A84-4049-4832-9D3B-CCDAD1136CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80F328D-333C-481E-B8CA-A29570714310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
   </bookViews>
@@ -611,7 +611,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80F328D-333C-481E-B8CA-A29570714310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE2BD56-BE60-4FEF-96E3-B9D7BCA9CEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
+    <workbookView xWindow="2211" yWindow="1963" windowWidth="16080" windowHeight="13603" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="translation" sheetId="2" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>shop now</t>
   </si>
   <si>
-    <t>Osta praegu</t>
-  </si>
-  <si>
     <t>Products</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>Cart</t>
   </si>
   <si>
-    <t>Ostukäru</t>
-  </si>
-  <si>
     <t>Transportation</t>
   </si>
   <si>
@@ -248,6 +242,12 @@
   </si>
   <si>
     <t>Omniva pakiautomaat (3.50 EUR)</t>
+  </si>
+  <si>
+    <t>Ostukorv</t>
+  </si>
+  <si>
+    <t>Osta kohe</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -635,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -646,10 +646,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -657,219 +657,219 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE2BD56-BE60-4FEF-96E3-B9D7BCA9CEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A4C0C-4F03-44F7-9087-B02D914F076E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2211" yWindow="1963" windowWidth="16080" windowHeight="13603" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="translation" sheetId="2" r:id="rId1"/>
@@ -88,24 +88,6 @@
     <t>KUIVTOIT KOERTELE</t>
   </si>
   <si>
-    <t>Formula developed by specialized veterinarians based on European Pet food Industry federation guidelines.</t>
-  </si>
-  <si>
-    <t>Cart</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>My data</t>
-  </si>
-  <si>
-    <t>Minu andmed</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -133,21 +115,12 @@
     <t>Aadress</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Tellida</t>
-  </si>
-  <si>
     <t>главная</t>
   </si>
   <si>
     <t>Растительный корм&lt;br&gt; для оптимального&lt;br&gt; здоровья</t>
   </si>
   <si>
-    <t>Купи сейчас</t>
-  </si>
-  <si>
     <t>Продукты</t>
   </si>
   <si>
@@ -157,18 +130,6 @@
     <t>Сухая еда для собак</t>
   </si>
   <si>
-    <t>Формула разработана ветеринарами специалистами на основе рекомендаций Европейской федерации производителей кормов для домашних животных</t>
-  </si>
-  <si>
-    <t>Корзина</t>
-  </si>
-  <si>
-    <t>Транспорт</t>
-  </si>
-  <si>
-    <t>Мои данные</t>
-  </si>
-  <si>
     <t>Имя</t>
   </si>
   <si>
@@ -184,9 +145,6 @@
     <t>Адрес</t>
   </si>
   <si>
-    <t>Заказать</t>
-  </si>
-  <si>
     <t>for all sizes</t>
   </si>
   <si>
@@ -214,18 +172,12 @@
     <t>add to cart</t>
   </si>
   <si>
-    <t>В корзину</t>
-  </si>
-  <si>
     <t>lisa ostukorvi</t>
   </si>
   <si>
     <t>Taimne&lt;br&gt; lemmikloomatoit&lt;br&gt; optimaalseks&lt;br&gt; terviseks</t>
   </si>
   <si>
-    <t>Loomaarstide poolt välja töötatud valem, mis põhineb Euroopa lemmikloomatoidutööstuse föderatsiooni juhistel.</t>
-  </si>
-  <si>
     <t>DPD parcel locker (3 EUR)</t>
   </si>
   <si>
@@ -244,10 +196,58 @@
     <t>Omniva pakiautomaat (3.50 EUR)</t>
   </si>
   <si>
-    <t>Ostukorv</t>
-  </si>
-  <si>
-    <t>Osta kohe</t>
+    <t>osta kohe</t>
+  </si>
+  <si>
+    <t>купи сейчас</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>заказать</t>
+  </si>
+  <si>
+    <t>minu andmed</t>
+  </si>
+  <si>
+    <t>my data</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>transportation</t>
+  </si>
+  <si>
+    <t>корзина</t>
+  </si>
+  <si>
+    <t>транспорт</t>
+  </si>
+  <si>
+    <t>мои данные</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>ostukorv</t>
+  </si>
+  <si>
+    <t>loomaarstide poolt välja töötatud valem, mis põhineb euroopa lemmikloomatoidutööstuse föderatsiooni juhistel.</t>
+  </si>
+  <si>
+    <t>tellida</t>
+  </si>
+  <si>
+    <t>formula developed by specialized veterinarians based on european pet food industry federation guidelines.</t>
+  </si>
+  <si>
+    <t>формула разработана ветеринарами на основе рекомендаций европейской федерации производителей кормов для домашних животных</t>
+  </si>
+  <si>
+    <t>в корзину</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -635,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -646,10 +646,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -657,10 +657,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -668,7 +668,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -679,7 +679,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -690,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -698,178 +698,178 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A4C0C-4F03-44F7-9087-B02D914F076E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B5D67E-2789-4CB5-AE08-FFC8256035F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>esileht</t>
   </si>
   <si>
-    <t>Plant-based pet&lt;br&gt; food for optimal&lt;br&gt; health</t>
-  </si>
-  <si>
     <t>shop now</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>главная</t>
   </si>
   <si>
-    <t>Растительный корм&lt;br&gt; для оптимального&lt;br&gt; здоровья</t>
-  </si>
-  <si>
     <t>Продукты</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
     <t>lisa ostukorvi</t>
   </si>
   <si>
-    <t>Taimne&lt;br&gt; lemmikloomatoit&lt;br&gt; optimaalseks&lt;br&gt; terviseks</t>
-  </si>
-  <si>
     <t>DPD parcel locker (3 EUR)</t>
   </si>
   <si>
@@ -248,6 +239,15 @@
   </si>
   <si>
     <t>в корзину</t>
+  </si>
+  <si>
+    <t>Растительный&lt;br&gt;корм для&lt;br&gt;оптимального&lt;br&gt;здоровья</t>
+  </si>
+  <si>
+    <t>Taimne&lt;br&gt;lemmikloomatoit&lt;br&gt;optimaalseks&lt;br&gt;terviseks</t>
+  </si>
+  <si>
+    <t>Plant-based pet&lt;br&gt;food for optimal&lt;br&gt;health</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -635,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -643,233 +643,233 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B5D67E-2789-4CB5-AE08-FFC8256035F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465FB52A-43ED-4E6F-BAC9-51D002E46870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>ENG</t>
   </si>
@@ -67,12 +67,6 @@
     <t>shop now</t>
   </si>
   <si>
-    <t>Products</t>
-  </si>
-  <si>
-    <t>Tooted</t>
-  </si>
-  <si>
     <t>DRY FOOD FOR CATS</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>главная</t>
   </si>
   <si>
-    <t>Продукты</t>
-  </si>
-  <si>
     <t>Сухая еда для котов</t>
   </si>
   <si>
@@ -248,6 +239,24 @@
   </si>
   <si>
     <t>Plant-based pet&lt;br&gt;food for optimal&lt;br&gt;health</t>
+  </si>
+  <si>
+    <t>in cart</t>
+  </si>
+  <si>
+    <t>ostukorvis</t>
+  </si>
+  <si>
+    <t>в корзине</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>продукты</t>
+  </si>
+  <si>
+    <t>tooted</t>
   </si>
 </sst>
 </file>
@@ -608,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A19D9-4586-4F47-8D23-E44EBCDB03EC}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -635,7 +644,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -643,13 +652,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -657,219 +666,230 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465FB52A-43ED-4E6F-BAC9-51D002E46870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23545520-9F7B-41B4-AF42-7FA9FEB1E3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>ENG</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>tooted</t>
+  </si>
+  <si>
+    <t>Мы все еще находимся в процессе приобретения товара, но вы можете сделать предварительный заказ, чтобы мы знали, что вы заинтересованы. Мы свяжемся с вами, когда товар будет в наличии, чтобы договориться об оплате.</t>
+  </si>
+  <si>
+    <t>We are still in the process of acquiring stock, but you are welcome to pre-order so we know that you are interested. We are going to contact you when stock is available to arrange payment.</t>
   </si>
 </sst>
 </file>
@@ -617,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A19D9-4586-4F47-8D23-E44EBCDB03EC}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -890,6 +896,17 @@
       </c>
       <c r="C24" s="1" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23545520-9F7B-41B4-AF42-7FA9FEB1E3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A40486-5AED-4B4B-A2A6-0CD4D2C0A51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="translation" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">translation!$A$1:$C$22</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">translation!$A$1:$C$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>ENG</t>
   </si>
@@ -263,6 +263,24 @@
   </si>
   <si>
     <t>We are still in the process of acquiring stock, but you are welcome to pre-order so we know that you are interested. We are going to contact you when stock is available to arrange payment.</t>
+  </si>
+  <si>
+    <t>Vegan pet food for cats and dogs.</t>
+  </si>
+  <si>
+    <t>Растительный корм для котов и собак.</t>
+  </si>
+  <si>
+    <t>Vegan lemmikloomatoit kassidele ja koertele.</t>
+  </si>
+  <si>
+    <t>Vegato - vegan pet food</t>
+  </si>
+  <si>
+    <t>Vegato - растительный корм для животных</t>
+  </si>
+  <si>
+    <t>Vegato – vegan lemmikloomatoit</t>
   </si>
 </sst>
 </file>
@@ -623,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A19D9-4586-4F47-8D23-E44EBCDB03EC}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -646,266 +664,288 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>62</v>
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>59</v>
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>71</v>
       </c>
     </row>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A40486-5AED-4B4B-A2A6-0CD4D2C0A51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5770E97-A919-4C87-A166-92D1E0399C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="translation" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">translation!$A$1:$C$24</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">translation!$B$1:$D$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>ENG</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>Vegato – vegan lemmikloomatoit</t>
+  </si>
+  <si>
+    <t>verbatim</t>
   </si>
 </sst>
 </file>
@@ -641,311 +644,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A19D9-4586-4F47-8D23-E44EBCDB03EC}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="3" width="80.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3828125" customWidth="1"/>
+    <col min="2" max="3" width="80.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4">
+      <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4">
+      <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4">
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4">
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4">
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4">
+      <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4">
+      <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="2:4">
+      <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="2:4">
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="2:4">
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="2:4">
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="2:4">
+      <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="2:4">
+      <c r="B26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="2:4">
+      <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>71</v>
       </c>
     </row>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5770E97-A919-4C87-A166-92D1E0399C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B56E02E-B9FF-4513-878D-4F512E211476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
+    <workbookView xWindow="780" yWindow="1766" windowWidth="16080" windowHeight="13603" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="translation" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
   <si>
     <t>ENG</t>
   </si>
@@ -58,12 +58,6 @@
     <t>EST</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>esileht</t>
-  </si>
-  <si>
     <t>shop now</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>Aadress</t>
   </si>
   <si>
-    <t>главная</t>
-  </si>
-  <si>
     <t>Сухая еда для котов</t>
   </si>
   <si>
@@ -259,9 +250,6 @@
     <t>tooted</t>
   </si>
   <si>
-    <t>Мы все еще находимся в процессе приобретения товара, но вы можете сделать предварительный заказ, чтобы мы знали, что вы заинтересованы. Мы свяжемся с вами, когда товар будет в наличии, чтобы договориться об оплате.</t>
-  </si>
-  <si>
     <t>We are still in the process of acquiring stock, but you are welcome to pre-order so we know that you are interested. We are going to contact you when stock is available to arrange payment.</t>
   </si>
   <si>
@@ -284,6 +272,48 @@
   </si>
   <si>
     <t>verbatim</t>
+  </si>
+  <si>
+    <t>Мы еще находимся на этапе закупки товара, но вы можете сделать предзаказ! Таким образом мы будем знать, что вы заинтересованы, и свяжемся с вами, когда у нас будет товар, чтобы договориться об оплате.</t>
+  </si>
+  <si>
+    <t>Me veel oleme kauba soetamise etapis, kuid olete teretulnud ette tellima! Nii me teame, et olete huvitatud. Kauba lattu jõudmisel võtame teiega tasumise osas kindlasti ühendust!</t>
+  </si>
+  <si>
+    <t>Order invoice has been sent to your email. It is also displayed here and can be downloaded.</t>
+  </si>
+  <si>
+    <t>Счет вашего заказа был отправлен на ваш емайл. Вы также можете видеть счет внизу на этой странице и скачать его.</t>
+  </si>
+  <si>
+    <t>Tellimuse arve on saadetud Teie meilile. Seda kuvatakse ka siin ja saab seda alla laadida.</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>ГЛАВНАЯ</t>
+  </si>
+  <si>
+    <t>ESILEHT</t>
+  </si>
+  <si>
+    <t>Something is wrong with our server. We could not receive your order. Please, download you order from this page and send to us at</t>
+  </si>
+  <si>
+    <t>Что-то не так с нашим сервером. Мы не получили вас заказ. Пожалуйста, скачайте счет с этой страницы и отправьте на нашу электронную почту</t>
+  </si>
+  <si>
+    <t>Midagi läks meie serveriga valesti. Meil ei õnnestunud teie tellimust vastu võtta. Palun laadige oma tellimuse arve sellelt lehelt alla ja saatke meile aadressil</t>
+  </si>
+  <si>
+    <t>Click to download</t>
+  </si>
+  <si>
+    <t>Нажмите для скачивания</t>
+  </si>
+  <si>
+    <t>Klõpsake allalaadimiseks</t>
   </si>
 </sst>
 </file>
@@ -324,12 +354,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,21 +675,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A19D9-4586-4F47-8D23-E44EBCDB03EC}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="9.3828125" customWidth="1"/>
-    <col min="2" max="3" width="80.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="38.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -675,13 +707,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -689,277 +721,322 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="1" t="s">
+    <row r="18" spans="1:4">
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="b">
+        <v>1</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="b">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B56E02E-B9FF-4513-878D-4F512E211476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F732FC02-D68E-4266-BA47-8B0E2D850BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1766" windowWidth="16080" windowHeight="13603" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="translation" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">translation!$B$1:$D$24</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">translation!$B$1:$D$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="182">
   <si>
     <t>ENG</t>
   </si>
@@ -314,6 +314,285 @@
   </si>
   <si>
     <t>Klõpsake allalaadimiseks</t>
+  </si>
+  <si>
+    <t>Veterinary formula:</t>
+  </si>
+  <si>
+    <t>Ingredients: Corn protein, rice, corn, sunflower oil, peas, dehydrated potato, tapioca, rice bran, yeast, rice protein, wheat protein, vegetable hydrolysate (vegetarian palate), apple pulp, calcium carbonate, barley, algae oil, algae, dehydrated vegetables (pumpkin, alfalfa, carrot, plum, cranberry, parsley, sage, thyme, liquorice, canine rose, spirulina, oregano, mint, yucca schidigera (reduces the odor of pet stools), chicory (rich in FOS)), chloride, sodium chloride, monocalcium phosphate, plant extracts (citrus, grape peel, green tea, dandelion, aloe vera).</t>
+  </si>
+  <si>
+    <t>Formula developed by specialised veterinarians based on FEDIAF guidelines.</t>
+  </si>
+  <si>
+    <t>Complete food, no supplementation necessary.</t>
+  </si>
+  <si>
+    <t>Contains optimal amounts of Taurine, Vitamin A, Vitamin B12 and Arachidonic Acid: Substances considered essential for cats, in addition to L-methionine, L-tryptophan and L-lysine.</t>
+  </si>
+  <si>
+    <t>Improves cats' lives:</t>
+  </si>
+  <si>
+    <t>Contains methionine and cranberries to protect the urinary system from infections and crystals.</t>
+  </si>
+  <si>
+    <t>Contains antioxidant tocopherols.</t>
+  </si>
+  <si>
+    <t>Contains pumpkin, with healthy fibre to help regulate digestion.</t>
+  </si>
+  <si>
+    <t>Contains tapioca, which strengthens bones and contains a lot of iron.</t>
+  </si>
+  <si>
+    <t>Low-fat: suitable for neutered, overweight and obese animals.</t>
+  </si>
+  <si>
+    <t>Veterinaarvalem</t>
+  </si>
+  <si>
+    <t>Koostis: Maisiproteiin, riis, mais, päevalilleõli, herned, dehüdreeritud kartul, tapiokk, riisikliid, pärm, riisiproteiin, nisuproteiin, taimne hüdrolüsaat (taimetoit), õuna viljaliha, kaltsiumkarbonaat, oder, vetikaõli, vetikad, kuivatatud köögiviljad (kõrvits, lutsern, porgand, ploom, jõhvikas, petersell, salvei, tüümian, lagrits, koerroos, spirulina, pune, piparmünt, yucca schidigera (vähendab lemmikloomade väljaheidete lõhna), sigur (rikas FOS allikas)), kloriid, naatriumkloriid, monokaltsiumfosfaat, taimeekstraktid ( tsitruselised, viinamarjakoor, roheline tee, võilill, aloe vera).</t>
+  </si>
+  <si>
+    <t>Loomaarstide poolt välja töötatud valem, mis põhineb FEDIAF juhistel.</t>
+  </si>
+  <si>
+    <t>Täisväärtuslik toit, toidulisandeid pole vaja.</t>
+  </si>
+  <si>
+    <t>Sisaldab optimaalses koguses tauriini, A-vitamiini, B12-vitamiini ja arahhidoonhapet: lisaks L-metioniinile, L-trüptofaanile ja L-lüsiinile on kassidele olulised ained.</t>
+  </si>
+  <si>
+    <t>Kasside elu parandamine:</t>
+  </si>
+  <si>
+    <t>Sisaldab metioniini ja jõhvikaid, et kaitsta kuseteede süsteemi infektsioonide ja kristallide eest.</t>
+  </si>
+  <si>
+    <t>Sisaldab antioksüdantseid tokoferoole.</t>
+  </si>
+  <si>
+    <t>Sisaldab sigurit, rikas FOS allikas. Sisaldab L-trüptofaani ja L-lüsiini.</t>
+  </si>
+  <si>
+    <t>Sisaldab kõrvitsat, tervislikke kiudaineid, mis aitavad reguleerida seedimist.</t>
+  </si>
+  <si>
+    <t>Sisaldab tapiokki, mis tugevdab luid ja sisaldab palju rauda.</t>
+  </si>
+  <si>
+    <t>Madala rasvasisaldusega: sobib steriliseeritud, ülekaalulistele ja rasvunud loomadele.</t>
+  </si>
+  <si>
+    <t>Ветеринарная формула</t>
+  </si>
+  <si>
+    <t>Состав: Кукурузный белок, рис, кукуруза, подсолнечное масло, горох, обезвоженный картофель, тапиока, рисовые отруби, дрожжи, рисовый белок, пшеничный белок, растительный гидролизат (вегетарианский вкус), яблочная мякоть, карбонат кальция, ячмень, масло водорослей, водоросли, обезвоженные овощи (тыква, люцерна, морковь, слива, клюква, петрушка, шалфей, тимьян, лакрица, собачья роза, спирулина, орегано, мята, юкка Шидигера (уменьшает запах экскрементов питомца), цикорий (богатый источник ФОС)), хлорид, хлорид натрия, монокальцийфосфат, растительные экстракты ( цитрусовые, кожура винограда, зеленый чай, одуванчик, алоэ вера).</t>
+  </si>
+  <si>
+    <t>Формула разработана ветеринарами на основе рекомендаций европейской федерации производителей кормов для домашних животных (FEDIAF).</t>
+  </si>
+  <si>
+    <t>Полноценное питание, никаких добавок не требуется.</t>
+  </si>
+  <si>
+    <t>Содержит оптимальное количество таурина, витамина А, витамина В12 и арахидоновой кислоты: веществ, считающихся незаменимыми для кошек, в дополнение к L-метионину, L-триптофану и L-лизину.</t>
+  </si>
+  <si>
+    <t>Улучшает жизни кошек:</t>
+  </si>
+  <si>
+    <t>Содержит метионин и клюкву для защиты мочевыделительной системы от инфекций и кристаллов.</t>
+  </si>
+  <si>
+    <t>Содержит антиоксидантные токоферолы.</t>
+  </si>
+  <si>
+    <t>Содержит цикорий, богатый ФОС.</t>
+  </si>
+  <si>
+    <t>Содержит L-триптофан и L-лизин.</t>
+  </si>
+  <si>
+    <t>Содержит тыкву со здоровой клетчаткой, которая помогает регулировать пищеварение.</t>
+  </si>
+  <si>
+    <t>Contains chicory, rich in FOS.</t>
+  </si>
+  <si>
+    <t>Contains L-tryptophan and L-lysine.</t>
+  </si>
+  <si>
+    <t>Sisaldab L-trüptofaani ja L-lüsiini.</t>
+  </si>
+  <si>
+    <t>Содержит тапиоку, которая укрепляет кости и содержит много железа.</t>
+  </si>
+  <si>
+    <t>С низким содержанием жира: подходит для кастрированных животных, животных с избыточным весом и ожирением.</t>
+  </si>
+  <si>
+    <t>Uses:</t>
+  </si>
+  <si>
+    <t>Healthy cats, or cats that do not have specific nutritional needs.</t>
+  </si>
+  <si>
+    <t>Obese cats that need to lose weight.</t>
+  </si>
+  <si>
+    <t>Cats allergic or intolerant to animal products.</t>
+  </si>
+  <si>
+    <t>Cats with skin problems.</t>
+  </si>
+  <si>
+    <t>Cats with arthrosis.</t>
+  </si>
+  <si>
+    <t>Cats with immune-compromised conditions.</t>
+  </si>
+  <si>
+    <t>Neutered cats.</t>
+  </si>
+  <si>
+    <t>Cats that have had crystalluria.</t>
+  </si>
+  <si>
+    <t>Pregnant and lactating cats.</t>
+  </si>
+  <si>
+    <t>For all breeds and sizes.</t>
+  </si>
+  <si>
+    <t>Kasutusjuhtumid:</t>
+  </si>
+  <si>
+    <t>Terved kassid või kassid, kellel ei ole spetsiifilisi toitumisvajadusi.</t>
+  </si>
+  <si>
+    <t>Rasvunud kassid, kes peavad kaalust alla võtma.</t>
+  </si>
+  <si>
+    <t>Kassid loomsete saaduste suhtes allergilised või talumatud.</t>
+  </si>
+  <si>
+    <t>Nahaprobleemidega kassid.</t>
+  </si>
+  <si>
+    <t>Artroosiga kassid.</t>
+  </si>
+  <si>
+    <t>Kassid, kellel on nõrgenenud immuunsus.</t>
+  </si>
+  <si>
+    <t>Kastreeritud kassid.</t>
+  </si>
+  <si>
+    <t>Kassid, kellel on olnud kristalluuria.</t>
+  </si>
+  <si>
+    <t>Rasedad ja imetavad kassid.</t>
+  </si>
+  <si>
+    <t>Kõigile tõugudele ja suurustele.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подходит для: </t>
+  </si>
+  <si>
+    <t>Здоровые кошки или кошки, у которых нет особых потребностей в питании.</t>
+  </si>
+  <si>
+    <t>Тучные кошки, которым необходимо похудеть.</t>
+  </si>
+  <si>
+    <t>Кошки с аллергией или непереносимостью продуктов животного происхождения.</t>
+  </si>
+  <si>
+    <t>Кошки с проблемами кожи.</t>
+  </si>
+  <si>
+    <t>Кошки с артрозом.</t>
+  </si>
+  <si>
+    <t>Кошки с ослабленным иммунитетом.</t>
+  </si>
+  <si>
+    <t>Стерилизованные кошки.</t>
+  </si>
+  <si>
+    <t>Кошки, у которых была кристаллурия.</t>
+  </si>
+  <si>
+    <t>Беременные и кормящие кошки.</t>
+  </si>
+  <si>
+    <t>Для всех пород и размеров.</t>
+  </si>
+  <si>
+    <t>100% plant-based and natural:</t>
+  </si>
+  <si>
+    <t>Free from addictive substances, medicines, toxins and hormones contained in meat products.</t>
+  </si>
+  <si>
+    <t>Free from chemical flavourings, it contains natural flavouring: with substances extracted directly from nature, without the harmful health consequences of chemical flavourings.</t>
+  </si>
+  <si>
+    <t>Vitamins, provitamins, trace elements and minerals per kg:</t>
+  </si>
+  <si>
+    <t>Technological additives: Tocopherol extracts from vegetable oils.</t>
+  </si>
+  <si>
+    <t>Analytical Components:</t>
+  </si>
+  <si>
+    <t>Crude Protein 28%</t>
+  </si>
+  <si>
+    <t>Fats 12%</t>
+  </si>
+  <si>
+    <t>Crude Fibre 3%</t>
+  </si>
+  <si>
+    <t>Organic Matter or Ashes 6%</t>
+  </si>
+  <si>
+    <t>Calcium 0.8%</t>
+  </si>
+  <si>
+    <t>Phosphorus 0.75%</t>
+  </si>
+  <si>
+    <t>EPA + DHA 0.09%</t>
+  </si>
+  <si>
+    <t>Arachidonic acid 0.06%</t>
+  </si>
+  <si>
+    <t>Metabolizable Energy 3690kcal/kg</t>
+  </si>
+  <si>
+    <t>FEED</t>
+  </si>
+  <si>
+    <t>КОРМ</t>
+  </si>
+  <si>
+    <t>TOIT</t>
+  </si>
+  <si>
+    <t>WHY</t>
+  </si>
+  <si>
+    <t>ПОЧЕМУ</t>
+  </si>
+  <si>
+    <t>MIKS</t>
   </si>
 </sst>
 </file>
@@ -675,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A19D9-4586-4F47-8D23-E44EBCDB03EC}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -731,6 +1010,9 @@
       </c>
     </row>
     <row r="4" spans="1:4">
+      <c r="A4" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
@@ -742,287 +1024,287 @@
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="A5" t="b">
+        <v>1</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:4">
+      <c r="A6" t="b">
+        <v>1</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>56</v>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="s">
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="B17" t="s">
+    <row r="19" spans="1:4">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="b">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="b">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="b">
         <v>1</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>88</v>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1030,13 +1312,497 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="b">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="b">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="b">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="b">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="b">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="b">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="b">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="b">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="b">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="b">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="b">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="b">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="b">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="b">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="b">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="b">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="b">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="b">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="b">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="b">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="b">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="b">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="b">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="b">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="b">
+        <v>1</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="b">
+        <v>1</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="b">
+        <v>1</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="b">
+        <v>1</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F732FC02-D68E-4266-BA47-8B0E2D850BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8B884E-FF07-4EB9-9A41-31FE3F8E95D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="183">
   <si>
     <t>ENG</t>
   </si>
@@ -271,9 +271,6 @@
     <t>Vegato – vegan lemmikloomatoit</t>
   </si>
   <si>
-    <t>verbatim</t>
-  </si>
-  <si>
     <t>Мы еще находимся на этапе закупки товара, но вы можете сделать предзаказ! Таким образом мы будем знать, что вы заинтересованы, и свяжемся с вами, когда у нас будет товар, чтобы договориться об оплате.</t>
   </si>
   <si>
@@ -593,6 +590,12 @@
   </si>
   <si>
     <t>MIKS</t>
+  </si>
+  <si>
+    <t>why plant-based?</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
 </sst>
 </file>
@@ -954,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A19D9-4586-4F47-8D23-E44EBCDB03EC}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -969,7 +972,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -982,9 +985,6 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
         <v>71</v>
       </c>
@@ -996,9 +996,6 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="b">
-        <v>1</v>
-      </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -1010,48 +1007,42 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="b">
-        <v>1</v>
-      </c>
       <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="b">
-        <v>1</v>
-      </c>
       <c r="B5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="b">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
+      <c r="A7" t="b">
+        <v>1</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
@@ -1063,6 +1054,9 @@
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="b">
+        <v>1</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1074,6 +1068,9 @@
       </c>
     </row>
     <row r="9" spans="1:4">
+      <c r="A9" t="b">
+        <v>1</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1085,6 +1082,9 @@
       </c>
     </row>
     <row r="10" spans="1:4">
+      <c r="A10" t="b">
+        <v>1</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1096,6 +1096,9 @@
       </c>
     </row>
     <row r="11" spans="1:4">
+      <c r="A11" t="b">
+        <v>1</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1107,6 +1110,9 @@
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" t="b">
+        <v>1</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1118,6 +1124,9 @@
       </c>
     </row>
     <row r="13" spans="1:4">
+      <c r="A13" t="b">
+        <v>1</v>
+      </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -1129,6 +1138,9 @@
       </c>
     </row>
     <row r="14" spans="1:4">
+      <c r="A14" t="b">
+        <v>1</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1140,6 +1152,9 @@
       </c>
     </row>
     <row r="15" spans="1:4">
+      <c r="A15" t="b">
+        <v>1</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
@@ -1151,6 +1166,9 @@
       </c>
     </row>
     <row r="16" spans="1:4">
+      <c r="A16" t="b">
+        <v>1</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1162,6 +1180,9 @@
       </c>
     </row>
     <row r="17" spans="1:4">
+      <c r="A17" t="b">
+        <v>1</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
@@ -1173,6 +1194,9 @@
       </c>
     </row>
     <row r="18" spans="1:4">
+      <c r="A18" t="b">
+        <v>1</v>
+      </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -1184,6 +1208,9 @@
       </c>
     </row>
     <row r="19" spans="1:4">
+      <c r="A19" t="b">
+        <v>1</v>
+      </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -1195,6 +1222,9 @@
       </c>
     </row>
     <row r="20" spans="1:4">
+      <c r="A20" t="b">
+        <v>1</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1206,6 +1236,9 @@
       </c>
     </row>
     <row r="21" spans="1:4">
+      <c r="A21" t="b">
+        <v>1</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1217,6 +1250,9 @@
       </c>
     </row>
     <row r="22" spans="1:4">
+      <c r="A22" t="b">
+        <v>1</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1228,6 +1264,9 @@
       </c>
     </row>
     <row r="23" spans="1:4">
+      <c r="A23" t="b">
+        <v>1</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1239,6 +1278,9 @@
       </c>
     </row>
     <row r="24" spans="1:4">
+      <c r="A24" t="b">
+        <v>1</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1250,6 +1292,9 @@
       </c>
     </row>
     <row r="25" spans="1:4">
+      <c r="A25" t="b">
+        <v>1</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1261,6 +1306,9 @@
       </c>
     </row>
     <row r="26" spans="1:4">
+      <c r="A26" t="b">
+        <v>1</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1272,6 +1320,9 @@
       </c>
     </row>
     <row r="27" spans="1:4">
+      <c r="A27" t="b">
+        <v>1</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
@@ -1283,6 +1334,9 @@
       </c>
     </row>
     <row r="28" spans="1:4">
+      <c r="A28" t="b">
+        <v>1</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>61</v>
       </c>
@@ -1294,515 +1348,391 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="b">
-        <v>1</v>
-      </c>
       <c r="B29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="b">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="b">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="b">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="2:4">
+      <c r="B35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="2:4">
+      <c r="B36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="b">
-        <v>1</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="2:4">
+      <c r="B37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="2:4">
+      <c r="B38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="b">
-        <v>1</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="2:4">
+      <c r="B39" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="b">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="2:4">
+      <c r="B40" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="b">
-        <v>1</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="2:4">
+      <c r="B41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="b">
-        <v>1</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="C43" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="b">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="3" t="s">
+    <row r="44" spans="2:4">
+      <c r="B44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="2:4">
+      <c r="B45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="b">
-        <v>1</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="3" t="s">
+    <row r="46" spans="2:4">
+      <c r="B46" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="2:4">
+      <c r="B48" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="2:4">
+      <c r="B49" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="2:4">
+      <c r="B50" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="b">
-        <v>1</v>
-      </c>
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="2:4">
+      <c r="B51" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="b">
-        <v>1</v>
-      </c>
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="2:4">
+      <c r="B52" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="b">
-        <v>1</v>
-      </c>
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="2:4">
+      <c r="B53" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="b">
-        <v>1</v>
-      </c>
-      <c r="B53" s="1" t="s">
+    <row r="54" spans="2:4">
+      <c r="B54" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="2:4">
+      <c r="B55" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="b">
-        <v>1</v>
-      </c>
-      <c r="B55" s="1" t="s">
+    <row r="56" spans="2:4">
+      <c r="B56" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="b">
-        <v>1</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="3" t="s">
+    <row r="57" spans="2:4">
+      <c r="B57" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="b">
-        <v>1</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="b">
-        <v>1</v>
-      </c>
-      <c r="B58" s="1" t="s">
+    <row r="59" spans="2:4">
+      <c r="B59" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="b">
-        <v>1</v>
-      </c>
-      <c r="B59" s="1" t="s">
+    <row r="60" spans="2:4">
+      <c r="B60" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="b">
-        <v>1</v>
-      </c>
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="2:4">
+      <c r="B61" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="b">
-        <v>1</v>
-      </c>
-      <c r="B61" s="1" t="s">
+    <row r="62" spans="2:4">
+      <c r="B62" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="b">
-        <v>1</v>
-      </c>
-      <c r="B62" s="1" t="s">
+    <row r="63" spans="2:4">
+      <c r="B63" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="b">
-        <v>1</v>
-      </c>
-      <c r="B63" s="1" t="s">
+    <row r="64" spans="2:4">
+      <c r="B64" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="b">
-        <v>1</v>
-      </c>
-      <c r="B64" s="1" t="s">
+    <row r="65" spans="2:2">
+      <c r="B65" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="b">
-        <v>1</v>
-      </c>
-      <c r="B66" s="1" t="s">
+    <row r="67" spans="2:2">
+      <c r="B67" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="b">
-        <v>1</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="b">
-        <v>1</v>
-      </c>
-      <c r="B68" s="3" t="s">
+    <row r="69" spans="2:2">
+      <c r="B69" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="b">
-        <v>1</v>
-      </c>
-      <c r="B69" s="3" t="s">
+    <row r="70" spans="2:2">
+      <c r="B70" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="b">
-        <v>1</v>
-      </c>
-      <c r="B70" s="3" t="s">
+    <row r="71" spans="2:2">
+      <c r="B71" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="b">
-        <v>1</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>175</v>
+    <row r="72" spans="2:2">
+      <c r="B72" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8B884E-FF07-4EB9-9A41-31FE3F8E95D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928890F5-236B-40AF-BFFB-FC36F93BC570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="190">
   <si>
     <t>ENG</t>
   </si>
@@ -596,6 +596,27 @@
   </si>
   <si>
     <t>safety</t>
+  </si>
+  <si>
+    <t>Conventional meat-based pet food uses ingredients not suited for human consumption. This means that there are much less regulations in place which results in &lt;b&gt;wide-spread contamination&lt;/b&gt; with toxic compounds such as:</t>
+  </si>
+  <si>
+    <t>An ongoing and increasing contamination with toxic elements. &lt;b&gt;Heavy metals&lt;/b&gt; including arsenic, cadmium, nickel, lead, antimony, &lt;b&gt;radioactive elements&lt;/b&gt; such as uranium and thorium and other elements such as beryllium routinely go way above safe limits. [1,2]</t>
+  </si>
+  <si>
+    <t>Endocrine disrupting compounds such as PCBs and PBDEs. [5]</t>
+  </si>
+  <si>
+    <t>Nitrate and nitrite used in meat processing are routinely &lt;b&gt;two to three times the safety limit&lt;/b&gt;. [2] Chronic exposure can result in cardiac and thyroid diseases as well as cancer. [4]</t>
+  </si>
+  <si>
+    <t>Mycotoxin contamination&lt;/b&gt; above safe limits of all products irrespective of marketing channels. The long-term exposure to mycotoxins is implicated in numerous clinical conditions such as vomiting, reduced immunity and cancer. [3]</t>
+  </si>
+  <si>
+    <t>VeggieAnimals plant-based pet food is formulated from human grade ingredients which ensures that your pet is kept as healthy as possible and does not suffer needlessly from contaminants.</t>
+  </si>
+  <si>
+    <t>References:</t>
   </si>
 </sst>
 </file>
@@ -957,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A19D9-4586-4F47-8D23-E44EBCDB03EC}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1733,6 +1754,41 @@
     <row r="72" spans="2:2">
       <c r="B72" s="3" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daria\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928890F5-236B-40AF-BFFB-FC36F93BC570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3E2681-BDC9-4CD9-BA8C-3A169D90438A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="11872" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="translation" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="236">
   <si>
     <t>ENG</t>
   </si>
@@ -617,6 +617,144 @@
   </si>
   <si>
     <t>References:</t>
+  </si>
+  <si>
+    <t>100% растительный и натуральный:</t>
+  </si>
+  <si>
+    <t>100% taimne ja looduslik:</t>
+  </si>
+  <si>
+    <t>Vaba sõltuvust tekitavatest ainetest, ravimitest, toksiinidest ja lihatoodetes sisalduvatest hormoonidest.</t>
+  </si>
+  <si>
+    <t>Не содержит вызывающих привыкание веществ, лекарств, токсинов и гормонов, содержащихся в мясных продуктах.</t>
+  </si>
+  <si>
+    <t>Не содержит химических ароматизаторов, содержит натуральные ароматизаторы: вещества, извлеченные непосредственно из природы, без вредных последствий для здоровья, связанных с химическими ароматизаторами.</t>
+  </si>
+  <si>
+    <t>Keemiliste lõhna- ja maitseaineteta. Sisaldab ainult looduslikke lõhna- ja maitseaineid: otse loodusest ekstraheeritud ainetega, ilma keemiliste lõhna- ja maitseainete kahjulike tervisemõjudeta.</t>
+  </si>
+  <si>
+    <t>Vitamiinid, provitamiinid, mikroelemendid ja mineraalid kilogrammi kohta:</t>
+  </si>
+  <si>
+    <t>Витамины, провитамины, микроэлементы и минералы на кг:</t>
+  </si>
+  <si>
+    <t>Технологические добавки: Экстракты токоферола из растительных масел.</t>
+  </si>
+  <si>
+    <t>Tehnoloogilised lisandid: Tokoferooli ekstraktid taimeõlidest.</t>
+  </si>
+  <si>
+    <t>Analüütilised komponendid:</t>
+  </si>
+  <si>
+    <t>Аналитические компоненты:</t>
+  </si>
+  <si>
+    <t>Сырой белок 28%</t>
+  </si>
+  <si>
+    <t>toorvalk 28%</t>
+  </si>
+  <si>
+    <t>rasvad 12%</t>
+  </si>
+  <si>
+    <t>Жиры 12%</t>
+  </si>
+  <si>
+    <t>Toorkiud 3%</t>
+  </si>
+  <si>
+    <t>Сырая клетчатка 3%</t>
+  </si>
+  <si>
+    <t>Органические вещества или зола 6%</t>
+  </si>
+  <si>
+    <t>Orgaaniline aine või tuhk 6%</t>
+  </si>
+  <si>
+    <t>Kaltsium 0,8%</t>
+  </si>
+  <si>
+    <t>Кальций 0,8%</t>
+  </si>
+  <si>
+    <t>Фосфор 0,75%</t>
+  </si>
+  <si>
+    <t>Fosfor 0,75%</t>
+  </si>
+  <si>
+    <t>EPA + DHA 0,09%</t>
+  </si>
+  <si>
+    <t>ЭПК + ДГК 0,09%</t>
+  </si>
+  <si>
+    <t>Арахидоновая кислота 0,06%</t>
+  </si>
+  <si>
+    <t>Arahhidoonhape 0,06%</t>
+  </si>
+  <si>
+    <t>Metaboliseeritav energia 3690kcal/kg</t>
+  </si>
+  <si>
+    <t>Метаболизируемая энергия 3690 ккал/кг</t>
+  </si>
+  <si>
+    <t>почему на растительной основе?</t>
+  </si>
+  <si>
+    <t>miks taimne?</t>
+  </si>
+  <si>
+    <t>Tavalises lihapõhises lemmikloomatoidus kasutatakse inimtoiduks sobimatuid koostisosi. See tähendab, et kehtivaid eeskirju on palju vähem, mis põhjustab laialdast saastumist toksiliste ühenditega, nagu:</t>
+  </si>
+  <si>
+    <t>В обычных мясных кормах для домашних животных используются ингредиенты, не подходящие для употребления человеком. Это означает, что действует гораздо меньше правил, что приводит к широко распространенному загрязнению токсичными соединениями, такими как:</t>
+  </si>
+  <si>
+    <t>Endokriinsüsteemi kahjustavad ühendid, nagu PCB-d ja PBDE-d. [5]</t>
+  </si>
+  <si>
+    <t>Pidev ja kasvav saastumine toksiliste elementidega. Raskmetallid, sealhulgas arseen, kaadmium, nikkel, plii, antimon, radioaktiivsed elemendid, nagu uraan ja toorium, ning muud elemendid, nagu berüllium, ületavad tavaliselt ohutuid piire.[1,2]</t>
+  </si>
+  <si>
+    <t>Liha töötlemisel kasutatavad nitraadid ja nitritid on tavaliselt &lt;b&gt;kaks-kolmekordsed ohutuspiirist&lt;/b&gt;. [2] Krooniline kokkupuude võib põhjustada südame- ja kilpnäärmehaigusi ning vähki. [4]</t>
+  </si>
+  <si>
+    <t>Нитраты и нитриты, используемые при переработке мяса, обычно &lt;b&gt;в два-три раза превышают безопасный уровень&lt;/b&gt;. [2] Хроническое воздействие может привести к заболеваниям сердца и щитовидной железы, а также к раку. [4]</t>
+  </si>
+  <si>
+    <t>Продолжающееся и возрастающее загрязнение токсичными элементами. &lt;b&gt;Тяжелые металлы&lt;/b&gt;, включая мышьяк, кадмий, никель, свинец, сурьму, &lt;b&gt;радиоактивные элементы&lt;/b&gt;, такие как уран и торий, и другие элементы, такие как бериллий, обычно превышают безопасные пределы.[1,2]</t>
+  </si>
+  <si>
+    <t>Соединения, разрушающие эндокринную систему, такие как ПХБ и ПБДЭ. [5]</t>
+  </si>
+  <si>
+    <t>Контаминация микотоксинами&lt;/b&gt; выше безопасных пределов для всех продуктов, независимо от каналов сбыта. Длительное воздействие микотоксинов связано с многочисленными клиническими состояниями, такими как рвота, снижение иммунитета и рак. [3]</t>
+  </si>
+  <si>
+    <t>Mükotoksiiniga saastumine&lt;/b&gt; ületab kõigi toodete ohutuid piire, sõltumata turunduskanalitest. Pikaajaline kokkupuude mükotoksiinidega on seotud paljude kliiniliste seisunditega, nagu oksendamine, vähenenud immuunsus ja vähk. [3]</t>
+  </si>
+  <si>
+    <t>Корм для домашних животных VeggieAnimals на растительной основе изготовлен из ингредиентов, пригодных для человека, чтобы ваш питомец был максимально здоров и не страдал от загрязняющих веществ.</t>
+  </si>
+  <si>
+    <t>VeggieAnimalsi taimne lemmikloomatoit on valmistatud inimestele sobivatest koostisosadest, et teie lemmikloom oleks võimalikult terve ega kannataks asjatult saasteainete käes.</t>
+  </si>
+  <si>
+    <t>Использованная литература:</t>
+  </si>
+  <si>
+    <t>Kasutatud allikad:</t>
   </si>
 </sst>
 </file>
@@ -657,13 +795,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,15 +1119,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A19D9-4586-4F47-8D23-E44EBCDB03EC}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.3828125" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="38.4609375" customWidth="1"/>
+    <col min="3" max="3" width="38.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1680,115 +1819,253 @@
       <c r="B57" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="C57" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="C58" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="C59" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D59" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="C60" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="C61" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="C62" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="C63" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="65" spans="2:2">
+      <c r="C64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
       <c r="B65" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="66" spans="2:2">
+      <c r="C65" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
       <c r="B66" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="67" spans="2:2">
+      <c r="C66" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
       <c r="B67" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="68" spans="2:2">
+      <c r="C67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
       <c r="B68" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="69" spans="2:2">
+      <c r="C68" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
       <c r="B69" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="70" spans="2:2">
+      <c r="C69" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
       <c r="B70" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="71" spans="2:2">
+      <c r="C70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
       <c r="B71" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="72" spans="2:2">
+      <c r="C71" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
       <c r="B72" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="73" spans="2:2">
+      <c r="C72" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
       <c r="B73" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="74" spans="2:2">
+      <c r="C73" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
       <c r="B74" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="75" spans="2:2">
+      <c r="C74" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
       <c r="B75" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="76" spans="2:2">
+      <c r="C75" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
       <c r="B76" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="77" spans="2:2">
+      <c r="C76" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
       <c r="B77" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="78" spans="2:2">
+      <c r="C77" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
       <c r="B78" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="79" spans="2:2">
+      <c r="C78" t="s">
+        <v>232</v>
+      </c>
+      <c r="D78" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
       <c r="B79" s="3" t="s">
         <v>189</v>
+      </c>
+      <c r="C79" t="s">
+        <v>234</v>
+      </c>
+      <c r="D79" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daria\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3E2681-BDC9-4CD9-BA8C-3A169D90438A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF765E7-EDA6-47DE-97A2-769F75B236DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="11872" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="translation" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">translation!$B$1:$D$26</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">translation!$B$1:$D$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="280">
   <si>
     <t>ENG</t>
   </si>
@@ -394,12 +394,6 @@
     <t>Полноценное питание, никаких добавок не требуется.</t>
   </si>
   <si>
-    <t>Содержит оптимальное количество таурина, витамина А, витамина В12 и арахидоновой кислоты: веществ, считающихся незаменимыми для кошек, в дополнение к L-метионину, L-триптофану и L-лизину.</t>
-  </si>
-  <si>
-    <t>Улучшает жизни кошек:</t>
-  </si>
-  <si>
     <t>Содержит метионин и клюкву для защиты мочевыделительной системы от инфекций и кристаллов.</t>
   </si>
   <si>
@@ -499,30 +493,6 @@
     <t xml:space="preserve">Подходит для: </t>
   </si>
   <si>
-    <t>Здоровые кошки или кошки, у которых нет особых потребностей в питании.</t>
-  </si>
-  <si>
-    <t>Тучные кошки, которым необходимо похудеть.</t>
-  </si>
-  <si>
-    <t>Кошки с аллергией или непереносимостью продуктов животного происхождения.</t>
-  </si>
-  <si>
-    <t>Кошки с проблемами кожи.</t>
-  </si>
-  <si>
-    <t>Кошки с артрозом.</t>
-  </si>
-  <si>
-    <t>Кошки с ослабленным иммунитетом.</t>
-  </si>
-  <si>
-    <t>Стерилизованные кошки.</t>
-  </si>
-  <si>
-    <t>Кошки, у которых была кристаллурия.</t>
-  </si>
-  <si>
     <t>Беременные и кормящие кошки.</t>
   </si>
   <si>
@@ -547,33 +517,6 @@
     <t>Analytical Components:</t>
   </si>
   <si>
-    <t>Crude Protein 28%</t>
-  </si>
-  <si>
-    <t>Fats 12%</t>
-  </si>
-  <si>
-    <t>Crude Fibre 3%</t>
-  </si>
-  <si>
-    <t>Organic Matter or Ashes 6%</t>
-  </si>
-  <si>
-    <t>Calcium 0.8%</t>
-  </si>
-  <si>
-    <t>Phosphorus 0.75%</t>
-  </si>
-  <si>
-    <t>EPA + DHA 0.09%</t>
-  </si>
-  <si>
-    <t>Arachidonic acid 0.06%</t>
-  </si>
-  <si>
-    <t>Metabolizable Energy 3690kcal/kg</t>
-  </si>
-  <si>
     <t>FEED</t>
   </si>
   <si>
@@ -655,60 +598,6 @@
     <t>Аналитические компоненты:</t>
   </si>
   <si>
-    <t>Сырой белок 28%</t>
-  </si>
-  <si>
-    <t>toorvalk 28%</t>
-  </si>
-  <si>
-    <t>rasvad 12%</t>
-  </si>
-  <si>
-    <t>Жиры 12%</t>
-  </si>
-  <si>
-    <t>Toorkiud 3%</t>
-  </si>
-  <si>
-    <t>Сырая клетчатка 3%</t>
-  </si>
-  <si>
-    <t>Органические вещества или зола 6%</t>
-  </si>
-  <si>
-    <t>Orgaaniline aine või tuhk 6%</t>
-  </si>
-  <si>
-    <t>Kaltsium 0,8%</t>
-  </si>
-  <si>
-    <t>Кальций 0,8%</t>
-  </si>
-  <si>
-    <t>Фосфор 0,75%</t>
-  </si>
-  <si>
-    <t>Fosfor 0,75%</t>
-  </si>
-  <si>
-    <t>EPA + DHA 0,09%</t>
-  </si>
-  <si>
-    <t>ЭПК + ДГК 0,09%</t>
-  </si>
-  <si>
-    <t>Арахидоновая кислота 0,06%</t>
-  </si>
-  <si>
-    <t>Arahhidoonhape 0,06%</t>
-  </si>
-  <si>
-    <t>Metaboliseeritav energia 3690kcal/kg</t>
-  </si>
-  <si>
-    <t>Метаболизируемая энергия 3690 ккал/кг</t>
-  </si>
-  <si>
     <t>почему на растительной основе?</t>
   </si>
   <si>
@@ -755,6 +644,249 @@
   </si>
   <si>
     <t>Kasutatud allikad:</t>
+  </si>
+  <si>
+    <t>CATS</t>
+  </si>
+  <si>
+    <t>DOGS</t>
+  </si>
+  <si>
+    <t>КОТЫ</t>
+  </si>
+  <si>
+    <t>СОБАКИ</t>
+  </si>
+  <si>
+    <t>KASSID</t>
+  </si>
+  <si>
+    <t>KOERAD</t>
+  </si>
+  <si>
+    <t>Ingredients</t>
+  </si>
+  <si>
+    <t>Nutritional information</t>
+  </si>
+  <si>
+    <t>Uses</t>
+  </si>
+  <si>
+    <t>Ингредиенты</t>
+  </si>
+  <si>
+    <t>Koostisained</t>
+  </si>
+  <si>
+    <t>Тучные коты, которым необходимо похудеть.</t>
+  </si>
+  <si>
+    <t>Коты с аллергией или непереносимостью продуктов животного происхождения.</t>
+  </si>
+  <si>
+    <t>Коты с проблемами кожи.</t>
+  </si>
+  <si>
+    <t>Коты с артрозом.</t>
+  </si>
+  <si>
+    <t>Коты с ослабленным иммунитетом.</t>
+  </si>
+  <si>
+    <t>Коты, у которых была кристаллурия.</t>
+  </si>
+  <si>
+    <t>Показания</t>
+  </si>
+  <si>
+    <t>Toiteväärtus</t>
+  </si>
+  <si>
+    <t>Пищевая ценность</t>
+  </si>
+  <si>
+    <t>Содержит оптимальное количество таурина, витамина А, витамина В12 и арахидоновой кислоты: веществ, считающихся незаменимыми для котов, в дополнение к L-метионину, L-триптофану и L-лизину.</t>
+  </si>
+  <si>
+    <t>Улучшает жизни котов:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> мг</t>
+  </si>
+  <si>
+    <t>Kasutusjuhtumid</t>
+  </si>
+  <si>
+    <t>Improves dogs' lives:</t>
+  </si>
+  <si>
+    <t>Koerte elu parandamine:</t>
+  </si>
+  <si>
+    <t>Улучшает жизни собак:</t>
+  </si>
+  <si>
+    <t>Фосфор</t>
+  </si>
+  <si>
+    <t>Кальций</t>
+  </si>
+  <si>
+    <t>Органические вещества или зола</t>
+  </si>
+  <si>
+    <t>Сырая клетчатка</t>
+  </si>
+  <si>
+    <t>Жиры</t>
+  </si>
+  <si>
+    <t>Сырой белок</t>
+  </si>
+  <si>
+    <t>ЭПК + ДГК</t>
+  </si>
+  <si>
+    <t>Арахидоновая кислота</t>
+  </si>
+  <si>
+    <t>kcal/kg</t>
+  </si>
+  <si>
+    <t>Metabolizable Energy</t>
+  </si>
+  <si>
+    <t>ккал/кг</t>
+  </si>
+  <si>
+    <t>Метаболизируемая энергия</t>
+  </si>
+  <si>
+    <t>Metaboliseeritav energia</t>
+  </si>
+  <si>
+    <t>Arahhidoonhape</t>
+  </si>
+  <si>
+    <t>EPA + DHA</t>
+  </si>
+  <si>
+    <t>Fosfor</t>
+  </si>
+  <si>
+    <t>Kaltsium</t>
+  </si>
+  <si>
+    <t>Orgaaniline aine või tuhk</t>
+  </si>
+  <si>
+    <t>Toorkiud</t>
+  </si>
+  <si>
+    <t>Toorvalk</t>
+  </si>
+  <si>
+    <t>Rasvad</t>
+  </si>
+  <si>
+    <t>Healthy dogs, or dogs that do not have specific nutritional needs.</t>
+  </si>
+  <si>
+    <t>Dogs with allergies or intolerances to animal products.</t>
+  </si>
+  <si>
+    <t>Dogs with atopy, if they are not allergic to any of our ingredients.</t>
+  </si>
+  <si>
+    <t>Dogs with arthrosis.</t>
+  </si>
+  <si>
+    <t>Dogs with autoimmune conditions.</t>
+  </si>
+  <si>
+    <t>Neutered dogs.</t>
+  </si>
+  <si>
+    <t>Dogs with skin problems.</t>
+  </si>
+  <si>
+    <t>Dogs with digestive problems.</t>
+  </si>
+  <si>
+    <t>Suitable for overweight or obese dogs.</t>
+  </si>
+  <si>
+    <t>Suitable for all breeds and sizes.</t>
+  </si>
+  <si>
+    <t>Беременные и кормящие собаки.</t>
+  </si>
+  <si>
+    <t>Собаки, у которых была кристаллурия.</t>
+  </si>
+  <si>
+    <t>Стерилизованные собаки.</t>
+  </si>
+  <si>
+    <t>Кастрированные коты.</t>
+  </si>
+  <si>
+    <t>Собаки с ослабленным иммунитетом.</t>
+  </si>
+  <si>
+    <t>Собаки с артрозом.</t>
+  </si>
+  <si>
+    <t>Собаки с проблемами кожи.</t>
+  </si>
+  <si>
+    <t>Собаки с аллергией или непереносимостью продуктов животного происхождения.</t>
+  </si>
+  <si>
+    <t>Тучные собаки, которым необходимо похудеть.</t>
+  </si>
+  <si>
+    <t>Здоровые собаки, у которых нет особых потребностей в питании.</t>
+  </si>
+  <si>
+    <t>Здоровые коты, у которых нет особых потребностей в питании.</t>
+  </si>
+  <si>
+    <t>Terved kassid, kellel ei ole spetsiifilisi toitumisvajadusi.</t>
+  </si>
+  <si>
+    <t>Ingredients: Corn protein, rice, corn, sunflower oil, peas, dehydrated potato, tapioca, rice bran, yeast, rice protein, wheat protein, hydrolysed vegetables (vegetarian palatant), apple pulp, calcium carbonate, barley, seaweed oil, seaweed, dehydrated vegetables (pumpkin, alfalfa, carrot, plum, blueberry, parsley, sage, thyme, liquorice, honeysuckle, spirulina, oregano, mint, yucca Schidigera, chicory (rich in FOS)), potassium chloride, sodium chloride, monocalcium phosphate, plant extracts (citrus, grape peel, green tea, dandelion, aloe vera)</t>
+  </si>
+  <si>
+    <t>Состав: кукурузный белок, рис, кукуруза, подсолнечное масло, горох, обезвоженный картофель, тапиока, рисовые отруби, дрожжи, рисовый белок, пшеничный белок, растительный гидролизат, яблочная мякоть, карбонат кальция, ячмень, масло водорослей, водоросли, обезвоженные овощи (тыква, люцерна, морковь, слива, клюква, петрушка, шалфей, тимьян, лакрица, собачья роза, спирулина, орегано, мята, юкка Шидигера (уменьшает запах экскрементов питомца), цикорий (богатый источник ФОС)), хлорид, хлорид натрия, монокальцийфосфат, растительные экстракты ( цитрусовые, кожура винограда, зеленый чай, одуванчик, алоэ вера).</t>
+  </si>
+  <si>
+    <t>Koostis: maisiproteiin, riis, mais, päevalilleõli, herned, dehüdreeritud kartul, tapiokk, riisikliid, pärm, riisiproteiin, nisuproteiin, taimne hüdrolüsaat, õuna viljaliha, kaltsiumkarbonaat, oder, vetikaõli, vetikad, kuivatatud köögiviljad (kõrvits, lutsern, porgand, ploom, jõhvikas, petersell, salvei, tüümian, lagrits, koerroos, spirulina, pune, piparmünt, yucca schidigera (vähendab lemmikloomade väljaheidete lõhna), sigur (rikas FOS allikas)), kloriid, naatriumkloriid, monokaltsiumfosfaat, taimeekstraktid ( tsitruselised, viinamarjakoor, roheline tee, võilill, aloe vera).</t>
+  </si>
+  <si>
+    <t>Crude Fibre</t>
+  </si>
+  <si>
+    <t>Organic Matter or Ashes</t>
+  </si>
+  <si>
+    <t>Calcium</t>
+  </si>
+  <si>
+    <t>Phosphorus</t>
+  </si>
+  <si>
+    <t>Arachidonic acid</t>
+  </si>
+  <si>
+    <t>Fats</t>
+  </si>
+  <si>
+    <t>Crude Protein</t>
   </si>
 </sst>
 </file>
@@ -1117,22 +1249,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A19D9-4586-4F47-8D23-E44EBCDB03EC}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="1" max="1" width="9.3828125" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="38.46484375" customWidth="1"/>
+    <col min="3" max="3" width="38.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1179,52 +1311,46 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="b">
-        <v>1</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="b">
-        <v>1</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1232,13 +1358,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1246,13 +1372,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1260,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1274,27 +1400,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="b">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1302,27 +1428,27 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="b">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1330,13 +1456,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1344,69 +1470,69 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="b">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
-        <v>34</v>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="b">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>37</v>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="b">
         <v>1</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
+      <c r="B21" t="s">
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1414,13 +1540,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1428,13 +1554,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1442,13 +1568,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1456,13 +1582,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1470,13 +1596,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1484,13 +1610,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1498,573 +1624,788 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="b">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="1" t="s">
+    <row r="31" spans="1:4">
+      <c r="B31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="1" t="s">
-        <v>88</v>
+      <c r="B33" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="1" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" t="s">
-        <v>123</v>
+      <c r="B42" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="1" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C44" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="1" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="1" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>141</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>158</v>
+        <v>261</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="1" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>191</v>
+        <v>148</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="1" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D58" t="s">
-        <v>192</v>
+        <v>149</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D59" t="s">
-        <v>195</v>
+        <v>171</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="D60" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" t="s">
-        <v>199</v>
+        <v>152</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C62" t="s">
-        <v>201</v>
+        <v>153</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="D62" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="D64" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="1" t="s">
-        <v>168</v>
+      <c r="B65" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C65" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D65" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="1" t="s">
-        <v>169</v>
+      <c r="B66" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="D66" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="1" t="s">
-        <v>170</v>
+      <c r="B67" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C67" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D67" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D68" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="D69" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="D70" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D71" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="D72" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C73" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" t="s">
+        <v>248</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" t="s">
+        <v>249</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" t="s">
+        <v>251</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" t="s">
+        <v>252</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" t="s">
+        <v>254</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" t="s">
+        <v>257</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" t="s">
+        <v>270</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C85" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" t="s">
+        <v>218</v>
+      </c>
+      <c r="D86" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C87" t="s">
+        <v>216</v>
+      </c>
+      <c r="D87" t="s">
         <v>223</v>
       </c>
-      <c r="D73" t="s">
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D88" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C89" t="s">
+        <v>232</v>
+      </c>
+      <c r="D89" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C90" t="s">
+        <v>231</v>
+      </c>
+      <c r="D90" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" t="s">
+        <v>230</v>
+      </c>
+      <c r="D91" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" t="s">
+        <v>229</v>
+      </c>
+      <c r="D92" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" t="s">
         <v>228</v>
       </c>
-      <c r="D74" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="B75" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C75" t="s">
-        <v>229</v>
-      </c>
-      <c r="D75" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4">
-      <c r="B76" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D93" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" t="s">
         <v>227</v>
       </c>
-      <c r="D76" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4">
-      <c r="B77" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C77" t="s">
-        <v>230</v>
-      </c>
-      <c r="D77" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4">
-      <c r="B78" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78" t="s">
-        <v>232</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="D94" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="79" spans="2:4">
-      <c r="B79" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D95" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" t="s">
         <v>234</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D96" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C97" t="s">
+        <v>238</v>
+      </c>
+      <c r="D97" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
+        <v>235</v>
+      </c>
+      <c r="C98" t="s">
+        <v>237</v>
+      </c>
+      <c r="D98" t="s">
         <v>235</v>
       </c>
     </row>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF765E7-EDA6-47DE-97A2-769F75B236DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A3FDA6-C7CD-4B76-848E-FA1CFC3119EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{292DDA69-629D-4828-9D77-5CE4949AA0A9}"/>
   </bookViews>
@@ -511,9 +511,6 @@
     <t>Vitamins, provitamins, trace elements and minerals per kg:</t>
   </si>
   <si>
-    <t>Technological additives: Tocopherol extracts from vegetable oils.</t>
-  </si>
-  <si>
     <t>Analytical Components:</t>
   </si>
   <si>
@@ -586,12 +583,6 @@
     <t>Витамины, провитамины, микроэлементы и минералы на кг:</t>
   </si>
   <si>
-    <t>Технологические добавки: Экстракты токоферола из растительных масел.</t>
-  </si>
-  <si>
-    <t>Tehnoloogilised lisandid: Tokoferooli ekstraktid taimeõlidest.</t>
-  </si>
-  <si>
     <t>Analüütilised komponendid:</t>
   </si>
   <si>
@@ -736,9 +727,6 @@
     <t>Кальций</t>
   </si>
   <si>
-    <t>Органические вещества или зола</t>
-  </si>
-  <si>
     <t>Сырая клетчатка</t>
   </si>
   <si>
@@ -757,9 +745,6 @@
     <t>kcal/kg</t>
   </si>
   <si>
-    <t>Metabolizable Energy</t>
-  </si>
-  <si>
     <t>ккал/кг</t>
   </si>
   <si>
@@ -781,9 +766,6 @@
     <t>Kaltsium</t>
   </si>
   <si>
-    <t>Orgaaniline aine või tuhk</t>
-  </si>
-  <si>
     <t>Toorkiud</t>
   </si>
   <si>
@@ -868,12 +850,6 @@
     <t>Koostis: maisiproteiin, riis, mais, päevalilleõli, herned, dehüdreeritud kartul, tapiokk, riisikliid, pärm, riisiproteiin, nisuproteiin, taimne hüdrolüsaat, õuna viljaliha, kaltsiumkarbonaat, oder, vetikaõli, vetikad, kuivatatud köögiviljad (kõrvits, lutsern, porgand, ploom, jõhvikas, petersell, salvei, tüümian, lagrits, koerroos, spirulina, pune, piparmünt, yucca schidigera (vähendab lemmikloomade väljaheidete lõhna), sigur (rikas FOS allikas)), kloriid, naatriumkloriid, monokaltsiumfosfaat, taimeekstraktid ( tsitruselised, viinamarjakoor, roheline tee, võilill, aloe vera).</t>
   </si>
   <si>
-    <t>Crude Fibre</t>
-  </si>
-  <si>
-    <t>Organic Matter or Ashes</t>
-  </si>
-  <si>
     <t>Calcium</t>
   </si>
   <si>
@@ -886,7 +862,31 @@
     <t>Fats</t>
   </si>
   <si>
-    <t>Crude Protein</t>
+    <t>Technological additives: tocopherol extracts from vegetable oils.</t>
+  </si>
+  <si>
+    <t>Органические вещества</t>
+  </si>
+  <si>
+    <t>Orgaanilised ained</t>
+  </si>
+  <si>
+    <t>Технологические добавки: экстракты токоферола из растительных масел.</t>
+  </si>
+  <si>
+    <t>Tehnoloogilised lisandid: tokoferooli ekstraktid taimeõlidest.</t>
+  </si>
+  <si>
+    <t>Crude protein</t>
+  </si>
+  <si>
+    <t>Crude fibre</t>
+  </si>
+  <si>
+    <t>Organic matter</t>
+  </si>
+  <si>
+    <t>Metabolizable energy</t>
   </si>
 </sst>
 </file>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A19D9-4586-4F47-8D23-E44EBCDB03EC}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1264,7 +1264,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1311,46 +1311,46 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1754,7 +1754,7 @@
         <v>92</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>103</v>
@@ -1765,7 +1765,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>104</v>
@@ -1864,10 +1864,10 @@
         <v>126</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -1875,7 +1875,7 @@
         <v>127</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>138</v>
@@ -1886,7 +1886,7 @@
         <v>128</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>139</v>
@@ -1897,7 +1897,7 @@
         <v>129</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>140</v>
@@ -1908,7 +1908,7 @@
         <v>130</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>141</v>
@@ -1919,7 +1919,7 @@
         <v>131</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>142</v>
@@ -1930,7 +1930,7 @@
         <v>132</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>143</v>
@@ -1941,7 +1941,7 @@
         <v>133</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>144</v>
@@ -1974,10 +1974,10 @@
         <v>150</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="60" spans="2:4">
@@ -1985,10 +1985,10 @@
         <v>151</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -1996,10 +1996,10 @@
         <v>152</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" t="s">
         <v>175</v>
-      </c>
-      <c r="D61" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="62" spans="2:4">
@@ -2007,139 +2007,139 @@
         <v>153</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>271</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D64" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D65" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D66" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D67" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C69" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D70" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D71" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C72" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D72" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>137</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>138</v>
@@ -2158,10 +2158,10 @@
     </row>
     <row r="76" spans="2:4">
       <c r="B76" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>139</v>
@@ -2169,10 +2169,10 @@
     </row>
     <row r="77" spans="2:4">
       <c r="B77" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>140</v>
@@ -2180,10 +2180,10 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>141</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="79" spans="2:4">
       <c r="B79" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>142</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="80" spans="2:4">
       <c r="B80" t="s">
+        <v>248</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>143</v>
@@ -2213,10 +2213,10 @@
     </row>
     <row r="81" spans="2:4">
       <c r="B81" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>144</v>
@@ -2224,10 +2224,10 @@
     </row>
     <row r="82" spans="2:4">
       <c r="B82" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>145</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="83" spans="2:4">
       <c r="B83" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>149</v>
@@ -2246,167 +2246,167 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" t="s">
         <v>205</v>
       </c>
-      <c r="C85" t="s">
-        <v>208</v>
-      </c>
       <c r="D85" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C86" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D86" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C87" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D87" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="2:4">
       <c r="B88" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C88" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D88" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C89" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D89" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C90" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D90" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C91" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D91" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C92" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="D92" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="2:4">
       <c r="B93" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C93" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D93" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C94" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D94" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C95" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D95" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C96" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D96" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="3" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="C97" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D97" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C98" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D98" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71C7DD6-B455-487B-83C7-FABEDD4F01AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="translation"/>
+    <sheet name="translation" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0">translation!$B$1:$D$28</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="288">
   <si>
     <t>safety</t>
   </si>
@@ -127,18 +133,12 @@
     <t>DRY FOOD FOR CATS</t>
   </si>
   <si>
-    <t>Сухая еда для котов</t>
-  </si>
-  <si>
     <t>KUIVTOIT KASSIDELE</t>
   </si>
   <si>
     <t>DRY FOOD FOR DOGS</t>
   </si>
   <si>
-    <t>Сухая еда для собак</t>
-  </si>
-  <si>
     <t>KUIVTOIT KOERTELE</t>
   </si>
   <si>
@@ -860,14 +860,40 @@
   </si>
   <si>
     <t>ккал/кг</t>
+  </si>
+  <si>
+    <t>cat food</t>
+  </si>
+  <si>
+    <t>dog food</t>
+  </si>
+  <si>
+    <t>корм для котов</t>
+  </si>
+  <si>
+    <t>корм для собак</t>
+  </si>
+  <si>
+    <t>kassitoit</t>
+  </si>
+  <si>
+    <t>koeratoit</t>
+  </si>
+  <si>
+    <t>СУХОЙ КОРМ ДЛЯ КОТОВ</t>
+  </si>
+  <si>
+    <t>СУХОЙ КОРМ ДЛЯ СОБАК</t>
+  </si>
+  <si>
+    <t>Kassid, kes on loomsete saaduste suhtes allergilised või talumatud.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,28 +942,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -948,10 +973,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -989,71 +1014,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1081,7 +1106,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1104,11 +1129,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1117,13 +1142,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1133,7 +1158,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1142,7 +1167,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1151,7 +1176,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1159,10 +1184,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1227,23 +1252,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" style="4" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="34.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="38.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9.4609375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.4609375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.15234375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +1284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1269,7 +1296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -1281,7 +1308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -1293,7 +1320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -1305,7 +1332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -1317,7 +1344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>19</v>
@@ -1329,7 +1356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -1341,7 +1368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1355,7 +1382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1369,7 +1396,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1391,1078 +1418,1100 @@
         <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    </row>
+    <row r="13" spans="1:4" ht="19.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    </row>
+    <row r="14" spans="1:4" ht="19.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    </row>
+    <row r="15" spans="1:4" ht="19.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    </row>
+    <row r="16" spans="1:4" ht="19.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    </row>
+    <row r="18" spans="1:4" ht="19.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    </row>
+    <row r="19" spans="1:4" ht="19.5" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    </row>
+    <row r="20" spans="1:4" ht="19.5" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    </row>
+    <row r="21" spans="1:4" ht="19.5" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    </row>
+    <row r="22" spans="1:4" ht="19.5" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    </row>
+    <row r="23" spans="1:4" ht="19.5" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    </row>
+    <row r="24" spans="1:4" ht="19.5" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    </row>
+    <row r="25" spans="1:4" ht="19.5" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    </row>
+    <row r="26" spans="1:4" ht="19.5" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="19.5" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    </row>
+    <row r="28" spans="1:4" ht="19.5" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    </row>
+    <row r="29" spans="1:4" ht="19.5" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    </row>
+    <row r="30" spans="1:4" ht="19.5" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    </row>
+    <row r="31" spans="1:4" ht="19.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    </row>
+    <row r="32" spans="1:4" ht="19.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    </row>
+    <row r="33" spans="1:4" ht="19.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    </row>
+    <row r="34" spans="1:4" ht="19.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    </row>
+    <row r="35" spans="1:4" ht="19.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    </row>
+    <row r="36" spans="1:4" ht="19.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    </row>
+    <row r="37" spans="1:4" ht="19.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    </row>
+    <row r="38" spans="1:4" ht="19.5" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    </row>
+    <row r="39" spans="1:4" ht="19.5" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    </row>
+    <row r="40" spans="1:4" ht="19.5" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    </row>
+    <row r="41" spans="1:4" ht="19.5" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    </row>
+    <row r="42" spans="1:4" ht="19.5" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    </row>
+    <row r="43" spans="1:4" ht="19.5" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    </row>
+    <row r="44" spans="1:4" ht="19.5" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    </row>
+    <row r="45" spans="1:4" ht="19.5" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+    </row>
+    <row r="46" spans="1:4" ht="19.5" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    </row>
+    <row r="47" spans="1:4" ht="19.5" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    </row>
+    <row r="48" spans="1:4" ht="19.5" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    </row>
+    <row r="49" spans="1:4" ht="19.5" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    </row>
+    <row r="50" spans="1:4" ht="19.5" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+    </row>
+    <row r="51" spans="1:4" ht="19.5" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="19.5" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    </row>
+    <row r="53" spans="1:4" ht="19.5" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    </row>
+    <row r="54" spans="1:4" ht="19.5" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    </row>
+    <row r="55" spans="1:4" ht="19.5" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    </row>
+    <row r="56" spans="1:4" ht="19.5" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    </row>
+    <row r="57" spans="1:4" ht="19.5" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    </row>
+    <row r="58" spans="1:4" ht="19.5" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    </row>
+    <row r="59" spans="1:4" ht="19.5" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+    </row>
+    <row r="60" spans="1:4" ht="19.5" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+    </row>
+    <row r="61" spans="1:4" ht="19.5" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    </row>
+    <row r="62" spans="1:4" ht="19.5" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    </row>
+    <row r="63" spans="1:4" ht="19.5" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    </row>
+    <row r="64" spans="1:4" ht="19.5" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+    </row>
+    <row r="65" spans="1:4" ht="19.5" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+    </row>
+    <row r="66" spans="1:4" ht="19.5" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+    </row>
+    <row r="67" spans="1:4" ht="19.5" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+    </row>
+    <row r="68" spans="1:4" ht="19.5" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+    </row>
+    <row r="69" spans="1:4" ht="19.5" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+    </row>
+    <row r="70" spans="1:4" ht="19.5" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+    </row>
+    <row r="71" spans="1:4" ht="19.5" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+    </row>
+    <row r="72" spans="1:4" ht="19.5" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+    </row>
+    <row r="73" spans="1:4" ht="19.5" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+    </row>
+    <row r="74" spans="1:4" ht="19.5" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+    </row>
+    <row r="75" spans="1:4" ht="19.5" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="19.5" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="19.5" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="19.5" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="19.5" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="19.5" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="19.5" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="19.5" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="19.5" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="19.5" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+    </row>
+    <row r="85" spans="1:4" ht="19.5" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+    </row>
+    <row r="86" spans="1:4" ht="19.5" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+    </row>
+    <row r="87" spans="1:4" ht="19.5" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+    </row>
+    <row r="88" spans="1:4" ht="19.5" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="19.5" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+    </row>
+    <row r="90" spans="1:4" ht="19.5" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+    </row>
+    <row r="91" spans="1:4" ht="19.5" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+    </row>
+    <row r="92" spans="1:4" ht="19.5" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+    </row>
+    <row r="93" spans="1:4" ht="19.5" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+    </row>
+    <row r="94" spans="1:4" ht="19.5" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+    </row>
+    <row r="95" spans="1:4" ht="19.5" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="19.5" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+    </row>
+    <row r="97" spans="1:4" ht="19.5" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+    </row>
+    <row r="98" spans="1:4" ht="19.5" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="B99" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C99" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="B100" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>279</v>
+      <c r="C100" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71C7DD6-B455-487B-83C7-FABEDD4F01AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B8ED56-2C78-485A-A598-CEFD9937A3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,15 +121,6 @@
     <t>osta kohe</t>
   </si>
   <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>продукты</t>
-  </si>
-  <si>
-    <t>tooted</t>
-  </si>
-  <si>
     <t>DRY FOOD FOR CATS</t>
   </si>
   <si>
@@ -166,15 +157,6 @@
     <t xml:space="preserve">кг </t>
   </si>
   <si>
-    <t>formula developed by specialized veterinarians based on european pet food industry federation guidelines.</t>
-  </si>
-  <si>
-    <t>формула разработана ветеринарами на основе рекомендаций европейской федерации производителей кормов для домашних животных</t>
-  </si>
-  <si>
-    <t>loomaarstide poolt välja töötatud valem, mis põhineb euroopa lemmikloomatoidutööstuse föderatsiooni juhistel.</t>
-  </si>
-  <si>
     <t>cart</t>
   </si>
   <si>
@@ -184,15 +166,6 @@
     <t>ostukorv</t>
   </si>
   <si>
-    <t>transportation</t>
-  </si>
-  <si>
-    <t>транспорт</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
     <t>DPD parcel locker (3 EUR)</t>
   </si>
   <si>
@@ -211,15 +184,6 @@
     <t>Omniva pakiautomaat (3.50 EUR)</t>
   </si>
   <si>
-    <t>my data</t>
-  </si>
-  <si>
-    <t>мои данные</t>
-  </si>
-  <si>
-    <t>minu andmed</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -595,15 +559,6 @@
     <t>Analüütilised komponendid:</t>
   </si>
   <si>
-    <t>why plant-based?</t>
-  </si>
-  <si>
-    <t>почему на растительной основе?</t>
-  </si>
-  <si>
-    <t>miks taimne?</t>
-  </si>
-  <si>
     <t>Conventional meat-based pet food uses ingredients not suited for human consumption. This means that there are much less regulations in place which results in &lt;b&gt;wide-spread contamination&lt;/b&gt; with toxic compounds such as:</t>
   </si>
   <si>
@@ -862,24 +817,6 @@
     <t>ккал/кг</t>
   </si>
   <si>
-    <t>cat food</t>
-  </si>
-  <si>
-    <t>dog food</t>
-  </si>
-  <si>
-    <t>корм для котов</t>
-  </si>
-  <si>
-    <t>корм для собак</t>
-  </si>
-  <si>
-    <t>kassitoit</t>
-  </si>
-  <si>
-    <t>koeratoit</t>
-  </si>
-  <si>
     <t>СУХОЙ КОРМ ДЛЯ КОТОВ</t>
   </si>
   <si>
@@ -887,6 +824,69 @@
   </si>
   <si>
     <t>Kassid, kes on loomsete saaduste suhtes allergilised või talumatud.</t>
+  </si>
+  <si>
+    <t>My data</t>
+  </si>
+  <si>
+    <t>Minu andmed</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Транспорт</t>
+  </si>
+  <si>
+    <t>Мои данные</t>
+  </si>
+  <si>
+    <t>Продукты</t>
+  </si>
+  <si>
+    <t>Tooted</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Why plant-based?</t>
+  </si>
+  <si>
+    <t>Почему на растительной основе?</t>
+  </si>
+  <si>
+    <t>Miks taimne?</t>
+  </si>
+  <si>
+    <t>Cat food</t>
+  </si>
+  <si>
+    <t>Dog food</t>
+  </si>
+  <si>
+    <t>Kassitoit</t>
+  </si>
+  <si>
+    <t>Koeratoit</t>
+  </si>
+  <si>
+    <t>Корм для котов</t>
+  </si>
+  <si>
+    <t>Корм для собак</t>
+  </si>
+  <si>
+    <t>Formula developed by specialized veterinarians based on european pet food industry federation guidelines.</t>
+  </si>
+  <si>
+    <t>Loomaarstide poolt välja töötatud valem, mis põhineb euroopa lemmikloomatoidutööstuse föderatsiooni juhistel.</t>
+  </si>
+  <si>
+    <t>Формула разработана ветеринарами на основе рекомендаций европейской федерации производителей кормов для домашних животных</t>
   </si>
 </sst>
 </file>
@@ -1258,8 +1258,8 @@
   </sheetPr>
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1401,13 +1401,13 @@
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>275</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1">
@@ -1415,13 +1415,13 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1">
@@ -1429,13 +1429,13 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1">
@@ -1443,13 +1443,13 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19.5" customHeight="1">
@@ -1457,13 +1457,13 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19.5" customHeight="1">
@@ -1471,13 +1471,13 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1">
@@ -1485,13 +1485,13 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1">
@@ -1499,13 +1499,13 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1">
@@ -1513,13 +1513,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>271</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1">
@@ -1527,13 +1527,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1">
@@ -1541,13 +1541,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1">
@@ -1555,13 +1555,13 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>267</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>272</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1">
@@ -1569,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1">
@@ -1583,13 +1583,13 @@
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1">
@@ -1597,13 +1597,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19.5" customHeight="1">
@@ -1611,13 +1611,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1">
@@ -1625,13 +1625,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1">
@@ -1639,13 +1639,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1">
@@ -1653,13 +1653,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1">
@@ -1667,829 +1667,829 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="19.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.5" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="19.5" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="19.5" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="19.5" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19.5" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="19.5" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="19.5" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19.5" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="19.5" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.5" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="19.5" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="19.5" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="19.5" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="19.5" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="19.5" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="19.5" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="19.5" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="19.5" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="19.5" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="19.5" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="19.5" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="19.5" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>192</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="19.5" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="19.5" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="19.5" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="19.5" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="19.5" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="19.5" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="19.5" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.5" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="19.5" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="19.5" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="19.5" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="19.5" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="19.5" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="19.5" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="19.5" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="19.5" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="19.5" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="19.5" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="19.5" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="19.5" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="19.5" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="19.5" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="19.5" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="19.5" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="19.5" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="19.5" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="19.5" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="19.5" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="19.5" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="19.5" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="19.5" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="19.5" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2497,10 +2497,10 @@
         <v>279</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2508,10 +2508,10 @@
         <v>280</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B8ED56-2C78-485A-A598-CEFD9937A3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCED4B11-3920-4F64-A313-E1278D856143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="429" yWindow="1954" windowWidth="16080" windowHeight="13603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translation" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="294">
   <si>
     <t>safety</t>
   </si>
@@ -887,6 +887,24 @@
   </si>
   <si>
     <t>Формула разработана ветеринарами на основе рекомендаций европейской федерации производителей кормов для домашних животных</t>
+  </si>
+  <si>
+    <t>Order failed :(</t>
+  </si>
+  <si>
+    <t>Tellimine õnnestus!</t>
+  </si>
+  <si>
+    <t>Tellimine ebaõnnestus :(</t>
+  </si>
+  <si>
+    <t>Заказ не удался :(</t>
+  </si>
+  <si>
+    <t>Order succeeded!</t>
+  </si>
+  <si>
+    <t>Заказ прошел успешно!</t>
   </si>
 </sst>
 </file>
@@ -1256,10 +1274,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2514,6 +2532,28 @@
         <v>282</v>
       </c>
     </row>
+    <row r="101" spans="1:4">
+      <c r="B101" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="B102" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCED4B11-3920-4F64-A313-E1278D856143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD55CA4-9596-4D59-87F3-B66346035AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="429" yWindow="1954" windowWidth="16080" windowHeight="13603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,15 +157,6 @@
     <t xml:space="preserve">кг </t>
   </si>
   <si>
-    <t>cart</t>
-  </si>
-  <si>
-    <t>корзина</t>
-  </si>
-  <si>
-    <t>ostukorv</t>
-  </si>
-  <si>
     <t>DPD parcel locker (3 EUR)</t>
   </si>
   <si>
@@ -905,6 +896,15 @@
   </si>
   <si>
     <t>Заказ прошел успешно!</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Ostukorv</t>
+  </si>
+  <si>
+    <t>Корзина</t>
   </si>
 </sst>
 </file>
@@ -1276,8 +1276,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1419,13 +1419,13 @@
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1">
@@ -1436,7 +1436,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>33</v>
@@ -1450,7 +1450,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>35</v>
@@ -1503,13 +1503,13 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1">
@@ -1517,13 +1517,13 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1">
@@ -1531,13 +1531,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1">
@@ -1545,13 +1545,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1">
@@ -1559,13 +1559,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1">
@@ -1573,13 +1573,13 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1">
@@ -1587,13 +1587,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1">
@@ -1601,13 +1601,13 @@
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1">
@@ -1615,13 +1615,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19.5" customHeight="1">
@@ -1629,13 +1629,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1">
@@ -1643,13 +1643,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1">
@@ -1657,13 +1657,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1">
@@ -1671,13 +1671,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1">
@@ -1685,873 +1685,873 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="19.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.5" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="19.5" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="19.5" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="19.5" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19.5" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="19.5" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="19.5" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19.5" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="19.5" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.5" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="19.5" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="19.5" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="19.5" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="19.5" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="19.5" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="19.5" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="19.5" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="19.5" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="19.5" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="19.5" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="19.5" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="19.5" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="19.5" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="19.5" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="19.5" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="19.5" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="19.5" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="19.5" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="19.5" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.5" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="19.5" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="19.5" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="19.5" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="19.5" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="19.5" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="19.5" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="19.5" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="19.5" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="19.5" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="19.5" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="19.5" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="19.5" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="19.5" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="19.5" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="19.5" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="19.5" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="19.5" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="19.5" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="19.5" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="19.5" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="19.5" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="19.5" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="19.5" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="19.5" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="B99" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="B100" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="B101" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="D101" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="B102" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD55CA4-9596-4D59-87F3-B66346035AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550C8FD0-E9C3-4271-AA49-4B8DBE244BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="429" yWindow="1954" windowWidth="16080" windowHeight="13603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translation" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="297">
   <si>
     <t>safety</t>
   </si>
@@ -905,6 +905,15 @@
   </si>
   <si>
     <t>Корзина</t>
+  </si>
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>Письмо</t>
+  </si>
+  <si>
+    <t>Kiri</t>
   </si>
 </sst>
 </file>
@@ -959,16 +968,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,1283 +1281,1222 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="9.4609375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.4609375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.15234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>270</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>282</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>284</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>291</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>293</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>267</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>268</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>264</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>269</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C31" t="s">
+        <v>295</v>
+      </c>
+      <c r="D31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="19.5" customHeight="1">
+      <c r="B32" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B33" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B34" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B35" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B36" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B37" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B38" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B39" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B40" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B41" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B42" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B43" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B44" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B45" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B46" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B47" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B48" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" t="s">
         <v>122</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B49" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B50" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" t="s">
         <v>128</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B51" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B52" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" t="s">
         <v>134</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B53" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" t="s">
         <v>137</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
+    <row r="54" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B54" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B55" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
+    <row r="56" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B56" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
+    <row r="57" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B57" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
+    <row r="58" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B58" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
+    <row r="59" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B59" t="s">
         <v>154</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" t="s">
         <v>155</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
+    <row r="60" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B60" t="s">
         <v>157</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" t="s">
         <v>158</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B61" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" t="s">
         <v>161</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
+    <row r="62" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B62" t="s">
         <v>163</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" t="s">
         <v>164</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
+    <row r="63" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B63" t="s">
         <v>166</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" t="s">
         <v>167</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D63" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
+    <row r="64" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B64" t="s">
         <v>169</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" t="s">
         <v>170</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D64" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
+    <row r="65" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B65" t="s">
         <v>172</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" t="s">
         <v>173</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D65" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B66" t="s">
         <v>273</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" t="s">
         <v>274</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
+    <row r="67" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B67" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" t="s">
         <v>176</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D67" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B68" t="s">
         <v>178</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" t="s">
         <v>179</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D68" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1" t="s">
+    <row r="69" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B69" t="s">
         <v>181</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" t="s">
         <v>182</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D69" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
+    <row r="70" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B70" t="s">
         <v>184</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" t="s">
         <v>185</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
+    <row r="71" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B71" t="s">
         <v>187</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" t="s">
         <v>188</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
+    <row r="72" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B72" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" t="s">
         <v>191</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D72" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
+    <row r="73" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B73" t="s">
         <v>193</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" t="s">
         <v>194</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D73" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
+    <row r="74" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B74" t="s">
         <v>196</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" t="s">
         <v>197</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D74" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
+    <row r="75" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B75" t="s">
         <v>199</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" t="s">
         <v>200</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
+    <row r="76" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B76" t="s">
         <v>202</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" t="s">
         <v>203</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
+    <row r="77" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B77" t="s">
         <v>204</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" t="s">
         <v>205</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D77" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
+    <row r="78" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B78" t="s">
         <v>206</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" t="s">
         <v>207</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D78" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1" t="s">
+    <row r="79" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B79" t="s">
         <v>208</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" t="s">
         <v>209</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D79" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
+    <row r="80" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B80" t="s">
         <v>210</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" t="s">
         <v>211</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D80" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
+    <row r="81" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B81" t="s">
         <v>212</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" t="s">
         <v>213</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D81" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1" t="s">
+    <row r="82" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B82" t="s">
         <v>214</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" t="s">
         <v>215</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D82" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1" t="s">
+    <row r="83" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B83" t="s">
         <v>216</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" t="s">
         <v>217</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D83" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1" t="s">
+    <row r="84" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B84" t="s">
         <v>218</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" t="s">
         <v>155</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D84" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1" t="s">
+    <row r="85" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B85" t="s">
         <v>219</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C85" t="s">
         <v>220</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D85" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1" t="s">
+    <row r="86" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B86" t="s">
         <v>222</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" t="s">
         <v>223</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D86" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1" t="s">
+    <row r="87" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B87" t="s">
         <v>225</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" t="s">
         <v>226</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D87" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1" t="s">
+    <row r="88" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B88" t="s">
         <v>228</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" t="s">
         <v>229</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D88" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1" t="s">
+    <row r="89" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B89" t="s">
         <v>231</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C89" t="s">
         <v>232</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D89" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1" t="s">
+    <row r="90" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B90" t="s">
         <v>233</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" t="s">
         <v>234</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D90" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1" t="s">
+    <row r="91" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B91" t="s">
         <v>236</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C91" t="s">
         <v>237</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D91" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1" t="s">
+    <row r="92" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B92" t="s">
         <v>239</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" t="s">
         <v>240</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D92" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1" t="s">
+    <row r="93" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B93" t="s">
         <v>242</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" t="s">
         <v>243</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D93" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1" t="s">
+    <row r="94" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B94" t="s">
         <v>245</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" t="s">
         <v>246</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D94" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1" t="s">
+    <row r="95" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B95" t="s">
         <v>248</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" t="s">
         <v>249</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D95" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1" t="s">
+    <row r="96" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B96" t="s">
         <v>251</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" t="s">
         <v>252</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D96" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1" t="s">
+    <row r="97" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B97" t="s">
         <v>253</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" t="s">
         <v>254</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D97" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1" t="s">
+    <row r="98" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B98" t="s">
         <v>256</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" t="s">
         <v>257</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D98" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1" t="s">
+    <row r="99" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B99" t="s">
         <v>259</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C99" t="s">
         <v>260</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D99" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="B99" s="4" t="s">
+    <row r="100" spans="2:4">
+      <c r="B100" t="s">
         <v>276</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C100" t="s">
         <v>280</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D100" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="B100" s="4" t="s">
+    <row r="101" spans="2:4">
+      <c r="B101" t="s">
         <v>277</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C101" t="s">
         <v>281</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D101" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="B101" s="4" t="s">
+    <row r="102" spans="2:4">
+      <c r="B102" t="s">
         <v>285</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C102" t="s">
         <v>288</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D102" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="B102" s="4" t="s">
+    <row r="103" spans="2:4">
+      <c r="B103" t="s">
         <v>289</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C103" t="s">
         <v>290</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D103" t="s">
         <v>286</v>
       </c>
     </row>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550C8FD0-E9C3-4271-AA49-4B8DBE244BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE4ECC5-3B67-4829-BA8F-7961772B8656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="translation" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0">translation!$B$1:$D$28</definedName>
+    <definedName name="ExternalData_1" localSheetId="0">translation!$B$1:$D$27</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="297">
   <si>
     <t>safety</t>
   </si>
@@ -157,24 +157,6 @@
     <t xml:space="preserve">кг </t>
   </si>
   <si>
-    <t>DPD parcel locker (3 EUR)</t>
-  </si>
-  <si>
-    <t>DPD почтомат (3 EUR)</t>
-  </si>
-  <si>
-    <t>DPD pakiautomaat (3 EUR)</t>
-  </si>
-  <si>
-    <t>Omniva parcel locker (3.50 EUR)</t>
-  </si>
-  <si>
-    <t>Omniva почтомат (3.50 EUR)</t>
-  </si>
-  <si>
-    <t>Omniva pakiautomaat (3.50 EUR)</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -914,6 +896,24 @@
   </si>
   <si>
     <t>Kiri</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>proovimiseks</t>
+  </si>
+  <si>
+    <t>пробник</t>
+  </si>
+  <si>
+    <t>parcel locker</t>
+  </si>
+  <si>
+    <t>почтомат</t>
+  </si>
+  <si>
+    <t>pakiautomaat</t>
   </si>
 </sst>
 </file>
@@ -1283,8 +1283,8 @@
   </sheetPr>
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1419,13 +1419,13 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1">
@@ -1436,7 +1436,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1450,7 +1450,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
@@ -1503,13 +1503,13 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C17" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D17" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1">
@@ -1517,13 +1517,13 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C18" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D18" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1">
@@ -1531,27 +1531,24 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D19" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1">
@@ -1559,13 +1556,13 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>258</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>263</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1">
@@ -1573,13 +1570,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>265</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1">
@@ -1587,13 +1584,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1">
@@ -1601,13 +1598,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1">
@@ -1615,13 +1612,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19.5" customHeight="1">
@@ -1629,13 +1626,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1">
@@ -1643,13 +1640,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1">
@@ -1657,13 +1654,13 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1">
@@ -1671,13 +1668,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1">
@@ -1685,819 +1682,816 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>288</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>289</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
       <c r="B31" t="s">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>295</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>296</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1">
       <c r="B32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="19.5" customHeight="1">
       <c r="B33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="19.5" customHeight="1">
       <c r="B34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="19.5" customHeight="1">
       <c r="B35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="19.5" customHeight="1">
       <c r="B36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="19.5" customHeight="1">
       <c r="B37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="19.5" customHeight="1">
       <c r="B38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="19.5" customHeight="1">
       <c r="B39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="19.5" customHeight="1">
       <c r="B40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="19.5" customHeight="1">
       <c r="B41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="19.5" customHeight="1">
       <c r="B42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="19.5" customHeight="1">
       <c r="B43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="19.5" customHeight="1">
       <c r="B44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="19.5" customHeight="1">
       <c r="B45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="19.5" customHeight="1">
       <c r="B46" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="19.5" customHeight="1">
       <c r="B47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="19.5" customHeight="1">
       <c r="B48" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="19.5" customHeight="1">
       <c r="B49" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="19.5" customHeight="1">
       <c r="B50" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="19.5" customHeight="1">
       <c r="B51" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="19.5" customHeight="1">
       <c r="B52" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
-        <v>263</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="19.5" customHeight="1">
       <c r="B53" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="19.5" customHeight="1">
       <c r="B54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="19.5" customHeight="1">
       <c r="B55" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="19.5" customHeight="1">
       <c r="B56" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="19.5" customHeight="1">
       <c r="B57" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="19.5" customHeight="1">
       <c r="B58" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="19.5" customHeight="1">
       <c r="B59" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="19.5" customHeight="1">
       <c r="B60" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="D60" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="19.5" customHeight="1">
       <c r="B61" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="19.5" customHeight="1">
       <c r="B62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="19.5" customHeight="1">
       <c r="B63" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C63" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D63" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="19.5" customHeight="1">
       <c r="B64" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="19.5" customHeight="1">
       <c r="B65" t="s">
-        <v>172</v>
+        <v>267</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="D65" t="s">
-        <v>174</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="19.5" customHeight="1">
       <c r="B66" t="s">
-        <v>273</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
-        <v>274</v>
+        <v>170</v>
       </c>
       <c r="D66" t="s">
-        <v>275</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="19.5" customHeight="1">
       <c r="B67" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="19.5" customHeight="1">
       <c r="B68" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="19.5" customHeight="1">
       <c r="B69" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D69" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="19.5" customHeight="1">
       <c r="B70" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D70" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="19.5" customHeight="1">
       <c r="B71" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D71" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="19.5" customHeight="1">
       <c r="B72" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D72" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="19.5" customHeight="1">
       <c r="B73" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C73" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D73" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="19.5" customHeight="1">
       <c r="B74" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D74" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="19.5" customHeight="1">
       <c r="B75" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C75" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D75" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="19.5" customHeight="1">
       <c r="B76" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="19.5" customHeight="1">
       <c r="B77" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D77" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="19.5" customHeight="1">
       <c r="B78" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C78" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D78" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="19.5" customHeight="1">
       <c r="B79" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C79" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="19.5" customHeight="1">
       <c r="B80" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C80" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D80" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="19.5" customHeight="1">
       <c r="B81" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C81" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D81" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="19.5" customHeight="1">
       <c r="B82" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D82" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="19.5" customHeight="1">
       <c r="B83" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C83" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="D83" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="19.5" customHeight="1">
       <c r="B84" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="D84" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="2:4" ht="19.5" customHeight="1">
       <c r="B85" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C85" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D85" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="19.5" customHeight="1">
       <c r="B86" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C86" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D86" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="2:4" ht="19.5" customHeight="1">
       <c r="B87" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C87" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D87" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="2:4" ht="19.5" customHeight="1">
       <c r="B88" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C88" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D88" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="2:4" ht="19.5" customHeight="1">
       <c r="B89" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C89" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D89" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="2:4" ht="19.5" customHeight="1">
       <c r="B90" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C90" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D90" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="19.5" customHeight="1">
       <c r="B91" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C91" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D91" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="2:4" ht="19.5" customHeight="1">
       <c r="B92" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C92" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D92" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="19.5" customHeight="1">
       <c r="B93" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C93" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D93" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="19.5" customHeight="1">
       <c r="B94" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C94" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D94" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="19.5" customHeight="1">
       <c r="B95" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C95" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D95" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="19.5" customHeight="1">
       <c r="B96" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C96" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D96" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="19.5" customHeight="1">
       <c r="B97" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C97" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D97" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="19.5" customHeight="1">
       <c r="B98" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C98" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D98" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" ht="19.5" customHeight="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
       <c r="B99" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C99" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="D99" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C100" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D100" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C101" t="s">
+        <v>282</v>
+      </c>
+      <c r="D101" t="s">
         <v>281</v>
-      </c>
-      <c r="D101" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C102" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D102" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C103" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D103" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/src/translation.xlsx
+++ b/src/translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_ill\Documents\GitHub\vegato-pet-shop.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE4ECC5-3B67-4829-BA8F-7961772B8656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00A3DE1-85BF-4F2C-94C8-8C4753A8DA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="312">
   <si>
     <t>safety</t>
   </si>
@@ -914,6 +914,51 @@
   </si>
   <si>
     <t>pakiautomaat</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Эстония</t>
+  </si>
+  <si>
+    <t>Латвия</t>
+  </si>
+  <si>
+    <t>Литва</t>
+  </si>
+  <si>
+    <t>Финляндия</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Finalnd</t>
+  </si>
+  <si>
+    <t>Eesti</t>
+  </si>
+  <si>
+    <t>Läti</t>
+  </si>
+  <si>
+    <t>Leedu</t>
+  </si>
+  <si>
+    <t>Soome</t>
+  </si>
+  <si>
+    <t>Country:</t>
+  </si>
+  <si>
+    <t>Riik:</t>
+  </si>
+  <si>
+    <t>Страна:</t>
   </si>
 </sst>
 </file>
@@ -1281,10 +1326,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2417,7 +2462,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="19.5" customHeight="1">
+    <row r="97" spans="1:4" ht="19.5" customHeight="1">
       <c r="B97" t="s">
         <v>250</v>
       </c>
@@ -2428,7 +2473,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="98" spans="2:4" ht="19.5" customHeight="1">
+    <row r="98" spans="1:4" ht="19.5" customHeight="1">
       <c r="B98" t="s">
         <v>253</v>
       </c>
@@ -2439,7 +2484,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="1:4">
       <c r="B99" t="s">
         <v>270</v>
       </c>
@@ -2450,7 +2495,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="1:4">
       <c r="B100" t="s">
         <v>271</v>
       </c>
@@ -2461,7 +2506,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="101" spans="2:4">
+    <row r="101" spans="1:4">
       <c r="B101" t="s">
         <v>279</v>
       </c>
@@ -2472,7 +2517,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="1:4">
       <c r="B102" t="s">
         <v>283</v>
       </c>
@@ -2483,7 +2528,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="1:4">
       <c r="B103" t="s">
         <v>291</v>
       </c>
@@ -2492,6 +2537,73 @@
       </c>
       <c r="D103" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="b">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>297</v>
+      </c>
+      <c r="C104" t="s">
+        <v>298</v>
+      </c>
+      <c r="D104" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="b">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>302</v>
+      </c>
+      <c r="C105" t="s">
+        <v>299</v>
+      </c>
+      <c r="D105" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="b">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>303</v>
+      </c>
+      <c r="C106" t="s">
+        <v>300</v>
+      </c>
+      <c r="D106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="b">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>304</v>
+      </c>
+      <c r="C107" t="s">
+        <v>301</v>
+      </c>
+      <c r="D107" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="B108" t="s">
+        <v>309</v>
+      </c>
+      <c r="C108" t="s">
+        <v>311</v>
+      </c>
+      <c r="D108" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
